--- a/BackTest/2020-01-20 BackTest XRP.xlsx
+++ b/BackTest/2020-01-20 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4450468.693480657</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>4538796.253080658</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>4725411.632532808</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>4914706.101870648</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>4756982.583753917</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>5045658.096353917</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>5216674.458953917</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>5845293.730283317</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>5194332.272194957</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>5017679.301880677</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>5261618.864166398</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>5391079.127266398</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>5320537.659846067</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>5244795.476446067</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>5277648.137546067</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>4620453.593285186</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>4620453.593285186</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>4428343.115885186</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>4366182.010885186</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>3878567.637885185</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>4470174.681375225</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>3989527.216775225</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>4053639.940575225</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>3664125.867175225</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2403652.096675225</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2699722.514270115</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>3320463.314115565</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>3035070.179470215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>3150378.363870215</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>3150378.363870215</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>3262314.124489795</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>3130237.172038585</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>3108227.031338585</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2995789.022438585</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>3358896.773938585</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>3353469.771933935</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>3606885.331333935</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>3406933.612696366</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>3388509.370196366</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>3388509.370196366</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3386509.370196366</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>3399787.638396366</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>3392810.173396366</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>3423341.697396366</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>3388126.465574244</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>3370836.757974244</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>3370836.757974244</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>3357960.894074244</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>3646313.837074244</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>3674997.538774244</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>3629859.171474244</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>3623569.121474244</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>3626449.343988174</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>3624668.921488174</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>3631186.210088174</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>3518224.660088175</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>3618463.986788175</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>3614481.128788175</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>3640956.447388174</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>3637936.674788175</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>3649124.367388175</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>3649124.367388175</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>3649842.046474245</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>3668573.435774245</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>3605403.294774245</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>3605392.594774245</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>3600534.122674245</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>3600534.122674245</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>3612251.961374245</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>3603767.393574245</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>3595055.847474245</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>3572887.617574245</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>3648621.158545276</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>3646101.694345276</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>3726127.327045276</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>3726127.327045276</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>3726127.327045276</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>3744530.714745276</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>3716118.490910116</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>3680308.146110116</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>3677138.257910116</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>3678094.878810116</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>3675493.977810116</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>3675493.977810116</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>3693824.315810116</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>3580484.579477746</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>3607055.096912425</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>3607505.663272535</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>3607505.663272535</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>3610475.934226285</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>3610475.934226285</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>3598584.228226285</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>3605083.075926285</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>3586949.376726285</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>3603222.577826285</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>3612322.672326285</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>3358436.759626285</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>3373436.759626285</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>3373436.759626285</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>3322841.214956005</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>3326393.528056005</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>3338207.386356005</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>3395890.872756005</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>3362326.797956005</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>3471160.319156005</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>3457654.262256004</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>3474809.007956004</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>3474405.460756004</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>3479733.792456004</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>3431272.010956004</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>3426852.663956004</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>3396607.168556004</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>3409236.800656004</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>3406365.323905794</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>3397377.845705794</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>3434204.923105794</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>3413605.063705794</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>3512641.522356264</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>3891130.430256264</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>3946825.595506494</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>4004599.877356264</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>4005727.357175304</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>3915674.547910334</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>3957327.449110334</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>3953093.749010334</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>3956170.948710334</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>3946615.848510334</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>4046289.908022964</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>4048463.061122964</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>4064495.193222964</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>4054460.215722964</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>4101252.374022964</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>4026010.932022964</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>4045972.047656484</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>4017370.310756484</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>4022866.524256484</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>3958346.311256484</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>3957321.311256484</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>3957684.734256484</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>3957684.734256484</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>3947264.219356484</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>3969424.318256484</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>3892051.540456485</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>3892051.540456485</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>3891693.068756484</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>3821280.949456485</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>3782069.940456484</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>3780402.896279715</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>3781848.311192304</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>3790128.919609924</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>3782429.681714464</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>3805255.535014465</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>3782691.120014464</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>3736815.734714464</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>3757285.943514464</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>3752101.018214465</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>3752101.018214465</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>3752101.018214465</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>3752101.018214465</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>3752101.018214465</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>3752101.018214465</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>3732037.688513755</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>3714997.929313755</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>3794973.139213045</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>3794973.139213045</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>3794973.139213045</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>3740315.872813045</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>3671297.427013045</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>3671297.427013045</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>3671297.427013045</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>3735174.304649075</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>3734674.304649075</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>3734674.304649075</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>3808968.639549075</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>3847234.064949075</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>3855437.188949075</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>3986191.666488815</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>3986191.666488815</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>3975161.508193404</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>3989402.218193684</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>3939160.363693684</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>3921989.239705874</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>3927243.182805874</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>3924384.103105874</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>3924384.103105874</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>3889361.828305874</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>3889361.828305874</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>3874467.705205874</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>3853869.594105874</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>3812519.721155034</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>3754036.445355034</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>3754036.445355034</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>3791177.802955035</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>3779309.527455035</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>3699143.910855035</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>3649696.524355035</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>3650712.989955035</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>3650712.989955035</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>3650712.989955035</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>2394450.172388706</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>2713819.211052396</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>2721677.933456366</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>3177536.467139526</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>3304946.862582936</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>3304946.862582936</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>3304946.862582936</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>3291811.497382936</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>3100860.337300576</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>2820284.440896496</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>2853622.982707026</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>3067543.815493856</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>3016774.475693856</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>3048191.178544187</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>3094433.736244186</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>3094433.736244186</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>3022371.875308636</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>2922243.973026376</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>3009237.290505626</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>2885227.541305626</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>3170523.254863386</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>3170523.254863386</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>4127449.866353526</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>4844072.072453526</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>4744364.496207796</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>4576694.458507796</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>4657922.869007796</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>4558213.286007796</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>4769278.810107796</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>4583438.557507796</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>4473200.692207796</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>4709551.197607797</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>4573846.722207797</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>4654570.736707796</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>4621112.765207796</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>4534768.859407797</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>4803822.675007797</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>4885395.831349197</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>4885395.831349197</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>4860882.511049197</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>4933590.639849197</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>4933590.639849197</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>4789786.489349198</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>4748066.233649198</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>4681882.713094258</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>4728956.879594258</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>4720128.194794258</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>4880140.337694258</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>4894703.086923649</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>4894703.086923649</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>5030307.910123649</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>5054752.111633799</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>5001480.450933799</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>4918977.144033799</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>4904315.973799059</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>4918535.762064319</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>4918535.762064319</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>4940398.109722989</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>4986963.468922989</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>4958303.125922988</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>5018341.845522989</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>5058111.647122988</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>5058111.647122988</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>4774503.144664658</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>4790455.696064658</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>4790455.696064658</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>4790014.513866278</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>4844157.614252859</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>4858148.147852859</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>4812088.965052859</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>4841590.279652859</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>4767870.858037669</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>4705488.819889119</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>4601838.705354699</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>4520929.072854699</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>4520929.072854699</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>4598958.453754699</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>4565057.399854699</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>4636777.740554699</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>4476458.658054699</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>4467956.111854699</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>4495285.4637547</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>4452667.54438258</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>4501140.88968258</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>4457634.88394095</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>4549702.41704095</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>4549702.41704095</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>4549702.41704095</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>4606876.94124095</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>4593574.835076209</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>4593574.835076209</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>4580178.553176209</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>4602004.969976209</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>4602004.969976209</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>4634490.324392969</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>4596369.080592969</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>4618205.663392968</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>4538733.535792968</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>4538733.535792968</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>4538733.535792968</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>4535567.194792968</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>4535567.194792968</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>4497155.489230928</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>4376211.629151368</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>4067650.596075388</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>4062051.273175388</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>4062051.273175388</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>4070887.983752148</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>4061422.205659048</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>4050525.583859048</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>4059417.612059048</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>4063542.611059048</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>4171242.450930138</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>4240517.998030137</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>4243147.743930138</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>4237933.550530137</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>4237933.550530137</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>4238006.064230138</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>4238006.064230138</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>4230093.752130138</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>4214192.401430137</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>4214192.401430137</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>4109002.803230138</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>4109180.283930138</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>4124408.082330138</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>4124408.082330138</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>4118321.055230138</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>4118331.055230138</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>4118331.055230138</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>4163273.017430138</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>4183256.743937428</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>4262315.854637427</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>4265153.572237427</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>4283245.334437427</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>4282632.211937428</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>4282632.211937428</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>4296477.861637427</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>4416133.505537427</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>4421186.457937427</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>4422937.820499697</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>4339499.503409566</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>4325705.329409567</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>4325705.329409567</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>3974279.729188747</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>3962560.392588747</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>3941723.012788747</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>3994651.554788746</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>4013733.849688747</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>4013733.849688747</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>3990643.545388747</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>3997394.858388747</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>3940340.197388747</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>3952856.481888747</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>3947102.481888747</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>4010430.995788747</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>4032089.561287667</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>4032089.561287667</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>4032309.515187667</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>4028559.535589527</v>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>4028559.535589527</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>3972170.556789527</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>3972170.556789527</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>3972170.556789527</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>3994237.679389527</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>4011135.651789527</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>4011135.651789527</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>4011135.651789527</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>3978737.933071507</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>4036382.681624717</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>4034993.780724717</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>4090482.840924717</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>4090482.840924717</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>4061897.727724717</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>4056625.226924717</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>4089718.361524717</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>4184371.720924717</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>4183922.379824718</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>4165518.295524717</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>4166467.890924717</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>4274379.772935447</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>4340767.059413987</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>4349477.600313988</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>4368655.336413988</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>4368655.336413988</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>4368655.336413988</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>4368655.336413988</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>4570155.329076368</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>4570155.329076368</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>4557228.899017419</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>4805862.428219778</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>4746911.947919779</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>4949938.994592508</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>4845569.156494629</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>4479897.085834528</v>
       </c>
       <c r="H724" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>4479897.085834528</v>
       </c>
       <c r="H725" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>4377472.908893278</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>4324164.885093278</v>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>4324164.885093278</v>
       </c>
       <c r="H728" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>4324164.885093278</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>4258919.018312088</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>4272706.311401809</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>4272706.311401809</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>4291069.606394338</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>4291069.606394338</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>4304557.225194339</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>4316557.052653639</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>4316557.052653639</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>4304120.772053638</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>4222045.071653638</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>4224848.856853638</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>4236059.920753638</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>4201920.193653638</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>4201920.193653638</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>4212041.011253638</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>4286806.985883418</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>4271736.176283418</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>4292739.197140329</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>4543821.436530079</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>4543821.436530079</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>4500981.286230079</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>4490394.073630079</v>
       </c>
       <c r="H755" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>4510002.053830079</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>5111491.106486648</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>5511567.027430668</v>
       </c>
       <c r="H758" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>5317512.111830669</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>5576397.973214708</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>5620696.385785478</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>5904348.499699548</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>5666537.160799548</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>5845958.120739978</v>
       </c>
       <c r="H764" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>5665008.191534478</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>5537822.787734478</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>5432103.231134478</v>
       </c>
       <c r="H767" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>5502770.875412398</v>
       </c>
       <c r="H768" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>5501230.196857958</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>5401762.357657958</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>5439270.663092508</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>5331900.535192508</v>
       </c>
       <c r="H772" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>5208770.747692509</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>5094100.036292508</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>5297389.971892509</v>
       </c>
       <c r="H775" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>5297389.971892509</v>
       </c>
       <c r="H776" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>5196551.436092509</v>
       </c>
       <c r="H777" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>5249513.899216619</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>5234754.71185716</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>5133489.28495848</v>
       </c>
       <c r="H780" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>5190820.63090481</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>5118082.85610481</v>
       </c>
       <c r="H782" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>5118082.85610481</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>5143925.375391549</v>
       </c>
       <c r="H784" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>5115300.966953489</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>5115300.966953489</v>
       </c>
       <c r="H786" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>5115300.966953489</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>5142120.290547599</v>
       </c>
       <c r="H788" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>5133710.931200319</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>5129532.489100319</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>5187311.836365929</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>5177115.611888349</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>5177115.611888349</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>5235727.510288349</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>5277498.760988349</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>5238444.241888349</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>5217803.721988349</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>5239147.836188349</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>5205590.102288349</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>5129081.574288349</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>5119870.628288348</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>5119870.628288348</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>5119870.628288348</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>4874917.609411678</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>4877235.259511678</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>4872537.795320719</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>4878197.690820718</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>4878197.690820718</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>4914872.408620718</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>4908360.507320718</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>4931047.371063128</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>4906663.364963128</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>4942457.550963128</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>4953625.683363128</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>5369782.233029759</v>
       </c>
       <c r="H831" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>5359580.780929758</v>
       </c>
       <c r="H832" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>5359580.780929758</v>
       </c>
       <c r="H833" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>5488700.635329758</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>5488700.635329758</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>5386634.082729758</v>
       </c>
       <c r="H836" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>5446918.962129758</v>
       </c>
       <c r="H837" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>5399421.737429758</v>
       </c>
       <c r="H838" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>5399421.737429758</v>
       </c>
       <c r="H839" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>5365945.936529838</v>
       </c>
       <c r="H840" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>5365945.936529838</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>5365945.936529838</v>
       </c>
       <c r="H842" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>5253042.720229837</v>
       </c>
       <c r="H843" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>5210270.924229837</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>5235847.326529837</v>
       </c>
       <c r="H845" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>5249641.313029837</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>5247820.567629836</v>
       </c>
       <c r="H847" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>5302334.851587797</v>
       </c>
       <c r="H848" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>5302334.851587797</v>
       </c>
       <c r="H849" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>5299328.181887796</v>
       </c>
       <c r="H850" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H851" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H852" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H853" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H854" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H855" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>5303143.208287796</v>
       </c>
       <c r="H856" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>5313691.102287796</v>
       </c>
       <c r="H857" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>5313691.102287796</v>
       </c>
       <c r="H858" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>5313691.102287796</v>
       </c>
       <c r="H859" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>5184675.151650926</v>
       </c>
       <c r="H860" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>5177529.367050926</v>
       </c>
       <c r="H861" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>5067111.504550926</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>5067111.504550926</v>
       </c>
       <c r="H863" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>4824459.068650926</v>
       </c>
       <c r="H864" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>4717005.095150926</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>4715105.507150926</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>4859958.951150926</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>4960907.533206336</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>4960907.533206336</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>4960907.533206336</v>
       </c>
       <c r="H870" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>4960907.533206336</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>4804749.930506337</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>4579092.966563187</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>4479604.602563187</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>4487777.393631087</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>4471807.536631087</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>4471807.536631087</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>4471807.536631087</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>4522087.363231087</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>4513943.586631087</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>4513943.586631087</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>4513943.586631087</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>4438619.285131087</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>4417732.385331087</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>4395035.512789567</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>4395035.512789567</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>4395035.512789567</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>4357303.425789567</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29722,7 +29722,7 @@
         <v>4357323.425789567</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29755,7 +29755,7 @@
         <v>4349944.908389566</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>4351210.929689567</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>4401368.131889567</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>4493399.626043047</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>4552138.286421667</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>4601809.267021667</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -29953,7 +29953,7 @@
         <v>4601809.267021667</v>
       </c>
       <c r="H896" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>4574005.672721667</v>
       </c>
       <c r="H897" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>4673295.434721667</v>
       </c>
       <c r="H898" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>4673295.434721667</v>
       </c>
       <c r="H899" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>4764972.537590007</v>
       </c>
       <c r="H900" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>4807379.001753357</v>
       </c>
       <c r="H901" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>4815837.883558687</v>
       </c>
       <c r="H902" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>4794796.065558687</v>
       </c>
       <c r="H903" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>4870077.395458687</v>
       </c>
       <c r="H904" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>4870077.395458687</v>
       </c>
       <c r="H905" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>4835812.511358687</v>
       </c>
       <c r="H906" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>4835812.511358687</v>
       </c>
       <c r="H907" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>4877326.823058687</v>
       </c>
       <c r="H908" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>4879709.558658687</v>
       </c>
       <c r="H909" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>4861185.868258688</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>4861185.868258688</v>
       </c>
       <c r="H911" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>4899429.383458688</v>
       </c>
       <c r="H912" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>4889394.339758688</v>
       </c>
       <c r="H913" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>4898027.409258688</v>
       </c>
       <c r="H914" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>4924845.268283187</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>4923378.541583187</v>
       </c>
       <c r="H916" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>4944670.623628407</v>
       </c>
       <c r="H917" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>4939339.319228407</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>4939339.319228407</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>4939339.319228407</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>4949942.287328407</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>4937753.452728407</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>4951039.602939038</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>5018629.028128408</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>4994320.204717778</v>
       </c>
       <c r="H925" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>4996451.711717778</v>
       </c>
       <c r="H926" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>4996451.711717778</v>
       </c>
       <c r="H927" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>4989574.426617778</v>
       </c>
       <c r="H928" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>4989574.426617778</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>4989574.426617778</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>4755410.603417777</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>4902397.454077917</v>
       </c>
       <c r="H932" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>4900332.381577917</v>
       </c>
       <c r="H933" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>4900332.381577917</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>4963699.708377917</v>
       </c>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>4948883.261977918</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>4948883.261977918</v>
       </c>
       <c r="H937" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>4949208.911077918</v>
       </c>
       <c r="H938" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>4949198.234777917</v>
       </c>
       <c r="H939" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>4959473.686577917</v>
       </c>
       <c r="H940" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>4959473.686577917</v>
       </c>
       <c r="H941" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>4818584.267977917</v>
       </c>
       <c r="H942" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>4867844.471026776</v>
       </c>
       <c r="H943" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>4895229.882526777</v>
       </c>
       <c r="H944" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>4887449.327826777</v>
       </c>
       <c r="H945" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>4835590.389226777</v>
       </c>
       <c r="H946" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>4839065.099078516</v>
       </c>
       <c r="H947" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31669,7 +31669,7 @@
         <v>4839065.099078516</v>
       </c>
       <c r="H948" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31702,7 +31702,7 @@
         <v>4871963.613098087</v>
       </c>
       <c r="H949" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -31735,7 +31735,7 @@
         <v>4877398.938273016</v>
       </c>
       <c r="H950" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>4860853.568759456</v>
       </c>
       <c r="H951" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31801,7 +31801,7 @@
         <v>4862209.191159456</v>
       </c>
       <c r="H952" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -31834,7 +31834,7 @@
         <v>4862209.191159456</v>
       </c>
       <c r="H953" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -31867,7 +31867,7 @@
         <v>4836113.813859456</v>
       </c>
       <c r="H954" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>4836123.813859456</v>
       </c>
       <c r="H955" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>4834797.812659456</v>
       </c>
       <c r="H956" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>4943795.362259456</v>
       </c>
       <c r="H957" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>4943076.737037436</v>
       </c>
       <c r="H958" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>4932089.600337436</v>
       </c>
       <c r="H959" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>4933982.847637436</v>
       </c>
       <c r="H960" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>4932307.786637437</v>
       </c>
       <c r="H961" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32131,7 +32131,7 @@
         <v>4953392.923837436</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32164,7 +32164,7 @@
         <v>4943924.646237437</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32197,7 +32197,7 @@
         <v>4943924.646237437</v>
       </c>
       <c r="H964" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32230,7 +32230,7 @@
         <v>4930235.683978577</v>
       </c>
       <c r="H965" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32263,7 +32263,7 @@
         <v>4930235.683978577</v>
       </c>
       <c r="H966" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32296,7 +32296,7 @@
         <v>4937196.860878577</v>
       </c>
       <c r="H967" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32329,7 +32329,7 @@
         <v>4937196.860878577</v>
       </c>
       <c r="H968" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32362,7 +32362,7 @@
         <v>4937196.860878577</v>
       </c>
       <c r="H969" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32395,7 +32395,7 @@
         <v>4937154.737219717</v>
       </c>
       <c r="H970" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32428,7 +32428,7 @@
         <v>4933841.917619717</v>
       </c>
       <c r="H971" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32461,7 +32461,7 @@
         <v>4933841.917619717</v>
       </c>
       <c r="H972" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32494,7 +32494,7 @@
         <v>4933841.917619717</v>
       </c>
       <c r="H973" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32527,7 +32527,7 @@
         <v>4931629.945819717</v>
       </c>
       <c r="H974" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32560,7 +32560,7 @@
         <v>4931629.945819717</v>
       </c>
       <c r="H975" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32593,7 +32593,7 @@
         <v>4936956.566519717</v>
       </c>
       <c r="H976" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>4929763.073691607</v>
       </c>
       <c r="H977" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32659,7 +32659,7 @@
         <v>4902550.254991607</v>
       </c>
       <c r="H978" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -32692,7 +32692,7 @@
         <v>4870864.900291607</v>
       </c>
       <c r="H979" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -32725,7 +32725,7 @@
         <v>4868312.185891607</v>
       </c>
       <c r="H980" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>4894885.064491607</v>
       </c>
       <c r="H981" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32791,7 +32791,7 @@
         <v>4861924.565991607</v>
       </c>
       <c r="H982" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>4875881.374791607</v>
       </c>
       <c r="H983" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32857,7 +32857,7 @@
         <v>4875238.752191607</v>
       </c>
       <c r="H984" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
         <v>4901167.493491607</v>
       </c>
       <c r="H985" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -32923,7 +32923,7 @@
         <v>4934269.072291607</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -32956,7 +32956,7 @@
         <v>4934255.839591607</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>5045293.662691607</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33022,7 +33022,7 @@
         <v>5050010.924391607</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33055,7 +33055,7 @@
         <v>5037573.531091607</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33088,7 +33088,7 @@
         <v>5037577.594891607</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33121,7 +33121,7 @@
         <v>5017728.601191606</v>
       </c>
       <c r="H992" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33154,7 +33154,7 @@
         <v>5017728.601191606</v>
       </c>
       <c r="H993" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33187,7 +33187,7 @@
         <v>5025116.395720276</v>
       </c>
       <c r="H994" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33220,7 +33220,7 @@
         <v>5025116.395720276</v>
       </c>
       <c r="H995" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33253,7 +33253,7 @@
         <v>5013516.078320276</v>
       </c>
       <c r="H996" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33286,7 +33286,7 @@
         <v>5019277.030120276</v>
       </c>
       <c r="H997" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33319,7 +33319,7 @@
         <v>5003630.012120276</v>
       </c>
       <c r="H998" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33352,7 +33352,7 @@
         <v>5003630.012120276</v>
       </c>
       <c r="H999" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -33385,7 +33385,7 @@
         <v>5054999.547420275</v>
       </c>
       <c r="H1000" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33418,7 +33418,7 @@
         <v>4981053.904220276</v>
       </c>
       <c r="H1001" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33451,7 +33451,7 @@
         <v>4988727.384720275</v>
       </c>
       <c r="H1002" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33484,7 +33484,7 @@
         <v>4984335.616120275</v>
       </c>
       <c r="H1003" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -33517,7 +33517,7 @@
         <v>4846063.872320275</v>
       </c>
       <c r="H1004" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -33550,7 +33550,7 @@
         <v>4839348.118654865</v>
       </c>
       <c r="H1005" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -33583,7 +33583,7 @@
         <v>4873695.199154865</v>
       </c>
       <c r="H1006" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -33616,7 +33616,7 @@
         <v>4785286.204654865</v>
       </c>
       <c r="H1007" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -33649,7 +33649,7 @@
         <v>4808228.688454865</v>
       </c>
       <c r="H1008" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -33682,7 +33682,7 @@
         <v>4753044.511054864</v>
       </c>
       <c r="H1009" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -33715,7 +33715,7 @@
         <v>4753044.511054864</v>
       </c>
       <c r="H1010" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>4766946.739854864</v>
       </c>
       <c r="H1011" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -33781,7 +33781,7 @@
         <v>4789713.112554864</v>
       </c>
       <c r="H1012" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +33814,7 @@
         <v>4789713.112554864</v>
       </c>
       <c r="H1013" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33847,7 +33847,7 @@
         <v>4789713.112554864</v>
       </c>
       <c r="H1014" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -33880,7 +33880,7 @@
         <v>4769600.789854864</v>
       </c>
       <c r="H1015" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -33913,7 +33913,7 @@
         <v>4769600.789854864</v>
       </c>
       <c r="H1016" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -33946,7 +33946,7 @@
         <v>4733290.294380024</v>
       </c>
       <c r="H1017" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -33979,7 +33979,7 @@
         <v>4733290.294380024</v>
       </c>
       <c r="H1018" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34012,7 +34012,7 @@
         <v>4741432.260205184</v>
       </c>
       <c r="H1019" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34045,7 +34045,7 @@
         <v>4781908.928505184</v>
       </c>
       <c r="H1020" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34078,7 +34078,7 @@
         <v>4781908.928505184</v>
       </c>
       <c r="H1021" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34111,7 +34111,7 @@
         <v>4891549.646985884</v>
       </c>
       <c r="H1022" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34144,7 +34144,7 @@
         <v>4891715.646985884</v>
       </c>
       <c r="H1023" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34177,7 +34177,7 @@
         <v>4884107.576685884</v>
       </c>
       <c r="H1024" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -34210,7 +34210,7 @@
         <v>4884107.576685884</v>
       </c>
       <c r="H1025" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34243,7 +34243,7 @@
         <v>4898385.504385884</v>
       </c>
       <c r="H1026" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34276,7 +34276,7 @@
         <v>4887501.504385884</v>
       </c>
       <c r="H1027" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34309,7 +34309,7 @@
         <v>4890915.284385884</v>
       </c>
       <c r="H1028" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34342,7 +34342,7 @@
         <v>4890915.284385884</v>
       </c>
       <c r="H1029" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34375,7 +34375,7 @@
         <v>4890915.284385884</v>
       </c>
       <c r="H1030" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34408,7 +34408,7 @@
         <v>4880944.263685884</v>
       </c>
       <c r="H1031" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34441,7 +34441,7 @@
         <v>4901377.136160704</v>
       </c>
       <c r="H1032" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -34474,7 +34474,7 @@
         <v>4825886.231260704</v>
       </c>
       <c r="H1033" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34507,7 +34507,7 @@
         <v>4960551.866258174</v>
       </c>
       <c r="H1034" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -34540,7 +34540,7 @@
         <v>4904938.226058174</v>
       </c>
       <c r="H1035" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -34573,7 +34573,7 @@
         <v>5011494.339758174</v>
       </c>
       <c r="H1036" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -34606,7 +34606,7 @@
         <v>5016895.839958173</v>
       </c>
       <c r="H1037" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -34639,7 +34639,7 @@
         <v>5010036.481258173</v>
       </c>
       <c r="H1038" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -34672,7 +34672,7 @@
         <v>5010036.481258173</v>
       </c>
       <c r="H1039" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -34705,7 +34705,7 @@
         <v>5010036.481258173</v>
       </c>
       <c r="H1040" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -34738,7 +34738,7 @@
         <v>4968051.060838873</v>
       </c>
       <c r="H1041" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -34771,7 +34771,7 @@
         <v>5016129.906938873</v>
       </c>
       <c r="H1042" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -34804,7 +34804,7 @@
         <v>5016129.906938873</v>
       </c>
       <c r="H1043" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -34837,7 +34837,7 @@
         <v>5009480.232238873</v>
       </c>
       <c r="H1044" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -34870,7 +34870,7 @@
         <v>4968083.992038873</v>
       </c>
       <c r="H1045" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -34903,7 +34903,7 @@
         <v>4947140.861538873</v>
       </c>
       <c r="H1046" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -34936,7 +34936,7 @@
         <v>4912505.805538873</v>
       </c>
       <c r="H1047" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -34969,7 +34969,7 @@
         <v>4898203.778209713</v>
       </c>
       <c r="H1048" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -35002,7 +35002,7 @@
         <v>4861898.159109714</v>
       </c>
       <c r="H1049" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -35035,7 +35035,7 @@
         <v>4810743.583809714</v>
       </c>
       <c r="H1050" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -35068,7 +35068,7 @@
         <v>4831557.139092764</v>
       </c>
       <c r="H1051" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -35101,7 +35101,7 @@
         <v>4831557.139092764</v>
       </c>
       <c r="H1052" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -35134,7 +35134,7 @@
         <v>4831557.139092764</v>
       </c>
       <c r="H1053" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -35167,7 +35167,7 @@
         <v>4863536.586192764</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -35200,7 +35200,7 @@
         <v>4782410.177592765</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -35233,7 +35233,7 @@
         <v>4782410.177592765</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -35266,7 +35266,7 @@
         <v>4782410.177592765</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -35299,7 +35299,7 @@
         <v>4782410.177592765</v>
       </c>
       <c r="H1058" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -35332,7 +35332,7 @@
         <v>4607151.774292764</v>
       </c>
       <c r="H1059" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -35365,7 +35365,7 @@
         <v>4607151.774292764</v>
       </c>
       <c r="H1060" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -35398,7 +35398,7 @@
         <v>4607151.774292764</v>
       </c>
       <c r="H1061" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -35431,7 +35431,7 @@
         <v>4311449.040792764</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -35464,7 +35464,7 @@
         <v>4311449.040792764</v>
       </c>
       <c r="H1063" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -35497,7 +35497,7 @@
         <v>4359370.834992765</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -35530,7 +35530,7 @@
         <v>4359370.834992765</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -35563,7 +35563,7 @@
         <v>4359370.834992765</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -35596,7 +35596,7 @@
         <v>4359370.834992765</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -35629,7 +35629,7 @@
         <v>4360429.119892765</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -35662,7 +35662,7 @@
         <v>4409562.460392765</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -35695,7 +35695,7 @@
         <v>4404328.140192765</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -35728,7 +35728,7 @@
         <v>4235137.100792765</v>
       </c>
       <c r="H1071" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -35761,7 +35761,7 @@
         <v>4312283.088792765</v>
       </c>
       <c r="H1072" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -35794,7 +35794,7 @@
         <v>4321427.248992764</v>
       </c>
       <c r="H1073" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -35827,7 +35827,7 @@
         <v>4307321.526692765</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -35860,7 +35860,7 @@
         <v>4307321.526692765</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -35893,7 +35893,7 @@
         <v>4428695.532592765</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -35926,7 +35926,7 @@
         <v>4446213.713792766</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -35959,7 +35959,7 @@
         <v>4450716.695792765</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -35992,7 +35992,7 @@
         <v>4402983.334192765</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -36025,7 +36025,7 @@
         <v>4402983.334192765</v>
       </c>
       <c r="H1080" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -36058,7 +36058,7 @@
         <v>4402983.334192765</v>
       </c>
       <c r="H1081" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -36091,7 +36091,7 @@
         <v>4315622.903014825</v>
       </c>
       <c r="H1082" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -36124,7 +36124,7 @@
         <v>4197385.468114825</v>
       </c>
       <c r="H1083" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -36157,7 +36157,7 @@
         <v>4197385.468114825</v>
       </c>
       <c r="H1084" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -36190,7 +36190,7 @@
         <v>3516351.477914825</v>
       </c>
       <c r="H1085" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -36223,7 +36223,7 @@
         <v>3720214.773228595</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -36256,7 +36256,7 @@
         <v>3720214.773228595</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -36289,7 +36289,7 @@
         <v>3652483.652728595</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -36322,7 +36322,7 @@
         <v>3867861.970214825</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -36355,7 +36355,7 @@
         <v>3894481.370114825</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -36388,7 +36388,7 @@
         <v>3952294.498238265</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -36421,7 +36421,7 @@
         <v>3918751.995061704</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -36454,7 +36454,7 @@
         <v>3917166.389561704</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -36487,7 +36487,7 @@
         <v>3926548.190761704</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -36520,7 +36520,7 @@
         <v>3927733.932761705</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -36553,7 +36553,7 @@
         <v>3909626.803961704</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -36586,7 +36586,7 @@
         <v>3909626.803961704</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -36619,7 +36619,7 @@
         <v>3911153.947861705</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -36652,7 +36652,7 @@
         <v>3817114.284561704</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -36685,7 +36685,7 @@
         <v>3817114.284561704</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -36718,7 +36718,7 @@
         <v>3817114.284561704</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -36751,7 +36751,7 @@
         <v>3898848.144561704</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -36784,7 +36784,7 @@
         <v>3830998.830661704</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -36817,7 +36817,7 @@
         <v>3805321.735161704</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -36850,7 +36850,7 @@
         <v>3935492.954576404</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -36883,7 +36883,7 @@
         <v>3499688.897776404</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -36916,7 +36916,7 @@
         <v>3604639.842776404</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -36949,7 +36949,7 @@
         <v>3576819.148876404</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -36982,7 +36982,7 @@
         <v>3573804.668576404</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -37015,7 +37015,7 @@
         <v>3692634.644314224</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -37048,7 +37048,7 @@
         <v>3679486.818114224</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -37081,7 +37081,7 @@
         <v>3650677.261414224</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -37114,7 +37114,7 @@
         <v>3688831.280014224</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -37147,7 +37147,7 @@
         <v>3742762.803614224</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -37180,7 +37180,7 @@
         <v>3735985.404314224</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -37213,7 +37213,7 @@
         <v>3565451.962014224</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -37246,7 +37246,7 @@
         <v>2736403.510724534</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -37279,7 +37279,7 @@
         <v>1425882.119542864</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -37312,7 +37312,7 @@
         <v>-349929.1761890156</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -37345,7 +37345,7 @@
         <v>-349929.1761890156</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -37378,7 +37378,7 @@
         <v>-1358792.611989016</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -39523,11 +39523,17 @@
         <v>-2267666.662588125</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>263.3</v>
+      </c>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr"/>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -39560,7 +39566,11 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr"/>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -39589,7 +39599,7 @@
         <v>-2294545.739449555</v>
       </c>
       <c r="H1188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1188" t="n">
         <v>263.9</v>
@@ -39597,7 +39607,7 @@
       <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1188" t="n">
@@ -39628,11 +39638,9 @@
         <v>-2574950.958549555</v>
       </c>
       <c r="H1189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1189" t="n">
-        <v>263.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
@@ -40222,9 +40230,11 @@
         <v>-4775690.714735466</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>262</v>
+      </c>
       <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
@@ -40259,9 +40269,11 @@
         <v>-4775690.714735466</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>261.5</v>
+      </c>
       <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
@@ -40296,9 +40308,11 @@
         <v>-4652363.800376966</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>261.5</v>
+      </c>
       <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr">
         <is>
@@ -40333,9 +40347,11 @@
         <v>-4597331.306139746</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>261.9</v>
+      </c>
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
@@ -40370,9 +40386,11 @@
         <v>-4716854.706568966</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>262.2</v>
+      </c>
       <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
@@ -40407,9 +40425,11 @@
         <v>-4716854.706568966</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>261.7</v>
+      </c>
       <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
@@ -40444,9 +40464,11 @@
         <v>-4780393.692168966</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>261.7</v>
+      </c>
       <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
@@ -40481,7 +40503,7 @@
         <v>-4780393.692168966</v>
       </c>
       <c r="H1212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1212" t="n">
         <v>261.5</v>
@@ -40520,9 +40542,11 @@
         <v>-4436711.023848356</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>261.5</v>
+      </c>
       <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr">
         <is>
@@ -40557,9 +40581,11 @@
         <v>-4316439.578048356</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>262</v>
+      </c>
       <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr">
         <is>
@@ -42111,9 +42137,11 @@
         <v>-4076922.490619093</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>262.9</v>
+      </c>
       <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
@@ -42148,9 +42176,11 @@
         <v>-3701362.982819093</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>262.8</v>
+      </c>
       <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
@@ -42185,7 +42215,7 @@
         <v>-3742045.148304923</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1258" t="n">
         <v>263.7</v>
@@ -42224,9 +42254,11 @@
         <v>-3823492.948160544</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>262.9</v>
+      </c>
       <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
@@ -42261,11 +42293,9 @@
         <v>-3823492.948160544</v>
       </c>
       <c r="H1260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1260" t="n">
-        <v>262.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
@@ -42300,11 +42330,9 @@
         <v>-3794755.590208644</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1261" t="n">
-        <v>262.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
@@ -42339,7 +42367,7 @@
         <v>-3846185.156408643</v>
       </c>
       <c r="H1262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1262" t="n">
         <v>262.8</v>
@@ -42378,7 +42406,7 @@
         <v>-3950291.128908643</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1263" t="n">
         <v>262.7</v>
@@ -42417,7 +42445,7 @@
         <v>-3972973.174408644</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1264" t="n">
         <v>262.6</v>
@@ -42456,7 +42484,7 @@
         <v>-4050711.486808644</v>
       </c>
       <c r="H1265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1265" t="n">
         <v>262.3</v>
@@ -42495,7 +42523,7 @@
         <v>-4050711.486808644</v>
       </c>
       <c r="H1266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1266" t="n">
         <v>262</v>
@@ -42534,7 +42562,7 @@
         <v>-4050711.486808644</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1267" t="n">
         <v>262</v>
@@ -42573,7 +42601,7 @@
         <v>-3905345.884508644</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1268" t="n">
         <v>262</v>
@@ -42612,7 +42640,7 @@
         <v>-4123047.938408644</v>
       </c>
       <c r="H1269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1269" t="n">
         <v>262.3</v>
@@ -42651,7 +42679,7 @@
         <v>-4092834.962598894</v>
       </c>
       <c r="H1270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1270" t="n">
         <v>262.1</v>
@@ -42690,7 +42718,7 @@
         <v>-4262122.162598894</v>
       </c>
       <c r="H1271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1271" t="n">
         <v>262.3</v>
@@ -42729,7 +42757,7 @@
         <v>-4214328.827098894</v>
       </c>
       <c r="H1272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1272" t="n">
         <v>262.2</v>
@@ -42768,7 +42796,7 @@
         <v>-3969475.024698894</v>
       </c>
       <c r="H1273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1273" t="n">
         <v>262.3</v>
@@ -42807,7 +42835,7 @@
         <v>-3908551.849846484</v>
       </c>
       <c r="H1274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1274" t="n">
         <v>263</v>
@@ -42846,7 +42874,7 @@
         <v>-3908551.849846484</v>
       </c>
       <c r="H1275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1275" t="n">
         <v>263.3</v>
@@ -42885,11 +42913,9 @@
         <v>-3908551.849846484</v>
       </c>
       <c r="H1276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1276" t="n">
-        <v>263.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
@@ -42924,11 +42950,9 @@
         <v>-3887157.838646484</v>
       </c>
       <c r="H1277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1277" t="n">
-        <v>263.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
       <c r="K1277" t="inlineStr">
         <is>
@@ -42963,11 +42987,9 @@
         <v>-3775234.786946484</v>
       </c>
       <c r="H1278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1278" t="n">
-        <v>263.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
       <c r="K1278" t="inlineStr">
         <is>
@@ -43002,11 +43024,9 @@
         <v>-3567092.282520304</v>
       </c>
       <c r="H1279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1279" t="n">
-        <v>263.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
       <c r="K1279" t="inlineStr">
         <is>
@@ -43041,11 +43061,9 @@
         <v>-3535555.958946484</v>
       </c>
       <c r="H1280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1280" t="n">
-        <v>263.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
       <c r="K1280" t="inlineStr">
         <is>
@@ -43080,11 +43098,9 @@
         <v>-3464185.197146484</v>
       </c>
       <c r="H1281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1281" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
       <c r="K1281" t="inlineStr">
         <is>
@@ -43119,11 +43135,9 @@
         <v>-3204529.414937054</v>
       </c>
       <c r="H1282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1282" t="n">
-        <v>264.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
       <c r="K1282" t="inlineStr">
         <is>
@@ -43158,11 +43172,9 @@
         <v>-3377005.856137054</v>
       </c>
       <c r="H1283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1283" t="n">
-        <v>264.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
       <c r="K1283" t="inlineStr">
         <is>
@@ -43197,11 +43209,9 @@
         <v>-3377005.856137054</v>
       </c>
       <c r="H1284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1284" t="n">
-        <v>264.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
       <c r="K1284" t="inlineStr">
         <is>
@@ -43236,11 +43246,9 @@
         <v>-3432804.020737054</v>
       </c>
       <c r="H1285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1285" t="n">
-        <v>264.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
       <c r="K1285" t="inlineStr">
         <is>
@@ -43312,11 +43320,9 @@
         <v>-3440929.088017384</v>
       </c>
       <c r="H1287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1287" t="n">
-        <v>263.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
       <c r="K1287" t="inlineStr">
         <is>
@@ -43351,11 +43357,9 @@
         <v>-3440929.088017384</v>
       </c>
       <c r="H1288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1288" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
       <c r="K1288" t="inlineStr">
         <is>
@@ -43390,11 +43394,9 @@
         <v>-3275549.289888184</v>
       </c>
       <c r="H1289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1289" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
       <c r="K1289" t="inlineStr">
         <is>
@@ -43429,11 +43431,9 @@
         <v>-3155214.430462664</v>
       </c>
       <c r="H1290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1290" t="n">
-        <v>264.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
       <c r="K1290" t="inlineStr">
         <is>
@@ -43468,11 +43468,9 @@
         <v>-3155214.430462664</v>
       </c>
       <c r="H1291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1291" t="n">
-        <v>264.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
       <c r="K1291" t="inlineStr">
         <is>
@@ -43507,11 +43505,9 @@
         <v>-3141492.320662663</v>
       </c>
       <c r="H1292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1292" t="n">
-        <v>264.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
       <c r="K1292" t="inlineStr">
         <is>
@@ -43546,11 +43542,9 @@
         <v>-3051030.059962663</v>
       </c>
       <c r="H1293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1293" t="n">
-        <v>264.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
       <c r="K1293" t="inlineStr">
         <is>
@@ -43585,11 +43579,9 @@
         <v>-3201770.755498963</v>
       </c>
       <c r="H1294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1294" t="n">
-        <v>264.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
       <c r="K1294" t="inlineStr">
         <is>
@@ -43624,11 +43616,9 @@
         <v>-3196382.223398963</v>
       </c>
       <c r="H1295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1295" t="n">
-        <v>264.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
       <c r="K1295" t="inlineStr">
         <is>
@@ -43700,11 +43690,9 @@
         <v>-3318119.352698964</v>
       </c>
       <c r="H1297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1297" t="n">
-        <v>264.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
       <c r="K1297" t="inlineStr">
         <is>
@@ -43739,11 +43727,9 @@
         <v>-3368364.576098964</v>
       </c>
       <c r="H1298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1298" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
       <c r="K1298" t="inlineStr">
         <is>
@@ -43778,11 +43764,9 @@
         <v>-3359090.137298963</v>
       </c>
       <c r="H1299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1299" t="n">
-        <v>263.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
       <c r="K1299" t="inlineStr">
         <is>
@@ -43817,11 +43801,9 @@
         <v>-3228094.571698964</v>
       </c>
       <c r="H1300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1300" t="n">
-        <v>263.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
       <c r="K1300" t="inlineStr">
         <is>
@@ -43893,11 +43875,9 @@
         <v>-3137452.639398964</v>
       </c>
       <c r="H1302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1302" t="n">
-        <v>264.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
       <c r="K1302" t="inlineStr">
         <is>
@@ -43932,11 +43912,9 @@
         <v>-3207463.199398964</v>
       </c>
       <c r="H1303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1303" t="n">
-        <v>264.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
       <c r="K1303" t="inlineStr">
         <is>
@@ -44156,11 +44134,9 @@
         <v>-3187008.768273794</v>
       </c>
       <c r="H1309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1309" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
       <c r="K1309" t="inlineStr">
         <is>
@@ -44195,11 +44171,9 @@
         <v>-3187008.768273794</v>
       </c>
       <c r="H1310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1310" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
       <c r="K1310" t="inlineStr">
         <is>
@@ -44234,11 +44208,9 @@
         <v>-3212184.558573794</v>
       </c>
       <c r="H1311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1311" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
       <c r="K1311" t="inlineStr">
         <is>
@@ -44273,11 +44245,9 @@
         <v>-3277782.716273793</v>
       </c>
       <c r="H1312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1312" t="n">
-        <v>264.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
       <c r="K1312" t="inlineStr">
         <is>
@@ -44312,9 +44282,11 @@
         <v>-3184342.769273793</v>
       </c>
       <c r="H1313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>264.1</v>
+      </c>
       <c r="J1313" t="inlineStr"/>
       <c r="K1313" t="inlineStr">
         <is>
@@ -44349,7 +44321,7 @@
         <v>-3243081.990520383</v>
       </c>
       <c r="H1314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1314" t="n">
         <v>264.5</v>
@@ -44388,11 +44360,9 @@
         <v>-3112523.658365283</v>
       </c>
       <c r="H1315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1315" t="n">
-        <v>264.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
       <c r="K1315" t="inlineStr">
         <is>
@@ -44427,11 +44397,9 @@
         <v>-3116152.554540133</v>
       </c>
       <c r="H1316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1316" t="n">
-        <v>264.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
       <c r="K1316" t="inlineStr">
         <is>
@@ -44466,11 +44434,9 @@
         <v>-3141156.579640133</v>
       </c>
       <c r="H1317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1317" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
       <c r="K1317" t="inlineStr">
         <is>
@@ -44505,11 +44471,9 @@
         <v>-3125444.232140133</v>
       </c>
       <c r="H1318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1318" t="n">
-        <v>264.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
       <c r="K1318" t="inlineStr">
         <is>
@@ -44544,11 +44508,9 @@
         <v>-3168485.126940133</v>
       </c>
       <c r="H1319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1319" t="n">
-        <v>264.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
       <c r="K1319" t="inlineStr">
         <is>
@@ -44583,7 +44545,7 @@
         <v>-3060240.024048273</v>
       </c>
       <c r="H1320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1320" t="n">
         <v>264.2</v>
@@ -44622,7 +44584,7 @@
         <v>-3158622.604348273</v>
       </c>
       <c r="H1321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1321" t="n">
         <v>264.3</v>
@@ -44661,7 +44623,7 @@
         <v>-3150912.205348273</v>
       </c>
       <c r="H1322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1322" t="n">
         <v>264</v>
@@ -44700,7 +44662,7 @@
         <v>-3149154.457597953</v>
       </c>
       <c r="H1323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1323" t="n">
         <v>264.1</v>
@@ -44739,9 +44701,11 @@
         <v>-3162966.268397953</v>
       </c>
       <c r="H1324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>264.4</v>
+      </c>
       <c r="J1324" t="inlineStr"/>
       <c r="K1324" t="inlineStr">
         <is>
@@ -44776,11 +44740,9 @@
         <v>-3162966.268397953</v>
       </c>
       <c r="H1325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1325" t="n">
-        <v>264.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
       <c r="K1325" t="inlineStr">
         <is>
@@ -44793,6 +44755,6 @@
       <c r="M1325" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest XRP.xlsx
+++ b/BackTest/2020-01-20 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4450468.693480657</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>4538796.253080658</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>4725411.632532808</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>4914706.101870648</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>4756982.583753917</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>5045658.096353917</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>5547201.468983317</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>5017679.301880677</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>5320537.659846067</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>5244795.476446067</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>5277648.137546067</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>4620453.593285186</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>4620453.593285186</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>4428343.115885186</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>4366182.010885186</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>3878567.637885185</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>4470174.681375225</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>3989527.216775225</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>4053639.940575225</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>3664125.867175225</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2403652.096675225</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>3108227.031338585</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>3358896.773938585</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>3353469.771933935</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>3453266.195133935</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>3518959.435757125</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>3388877.609357125</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>3073535.652157125</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>2880100.713923795</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>3140297.951223795</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>3217055.980624225</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>3248630.680219715</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>3113074.349819716</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>3285745.831319716</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>3228028.463419716</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>2767230.415119716</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>3080142.186119716</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3178319.384719715</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3178319.384719715</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3178319.384719715</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3252245.849988265</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>3246430.499088265</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>3269646.053188265</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>3202812.045688265</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>3202812.045688265</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>3313860.335188265</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>3313860.335188265</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>3308374.747969666</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>3299308.513069666</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>3299308.513069666</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3281653.835194086</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>3387109.260599906</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>3436537.714999906</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>3457889.216699906</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>3475708.344999906</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>3419885.038699906</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>3426198.206699906</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>3416971.718563776</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>3423715.656763776</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>3345772.528963776</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>3331016.862863776</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>3313426.029863776</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>3331749.220163776</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>3382653.228063776</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>3338902.811363776</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>3356608.349763776</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>3346758.589596366</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>3325861.778396366</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>3290597.170896366</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>3309856.711296366</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>3309856.711296366</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>3353509.856396366</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>3353509.856396366</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>3353174.513496366</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>3356264.513496366</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>3359078.182896366</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>3357084.090896366</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>3368706.252896366</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>3372516.553396366</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>3385982.273996366</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>3385982.273996366</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>3406933.612696366</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>3388509.370196366</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>3388509.370196366</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3386509.370196366</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>3399787.638396366</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>3392810.173396366</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>3423341.697396366</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>3432252.065296366</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>3408133.621296366</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>3355805.681996366</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>3326393.059496365</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>3274685.872296365</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>3301145.153696366</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>3301145.153696366</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>3301145.153696366</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>3304465.940796365</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>3304465.940796365</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>3304465.940796365</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>3304814.118996365</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>3182403.040996365</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>3172130.394096365</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>3206823.888902995</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>3218270.149802995</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>3220050.572302995</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>3220394.772302995</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>3220394.772302995</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>3210405.476102995</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>3198695.814602995</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>3198695.814602995</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>3198677.751002995</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>3198677.751002995</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>3096644.186702995</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>3225787.087902995</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>3280407.983402995</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>3280758.647402995</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>3280758.647402995</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>3273834.102702995</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>3283492.688502995</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>3369981.054802995</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>3364490.782802995</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>3369206.687174245</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>3362657.066074245</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>3363010.066074245</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>3356681.980074245</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>3371748.517474245</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>3371748.517474245</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>3362788.782774245</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>3360937.744274245</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>3342176.253074245</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>3354393.423674245</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>3354353.004674245</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>3376766.296974245</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>3376766.296974245</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>3382349.932074245</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>3382349.932074245</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>3356073.087174245</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>3358496.698974245</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>3358496.698974245</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>3358496.698974245</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>3353053.779074245</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>3369071.594374245</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>3369071.594374245</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>3363037.127574245</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>3400997.659974244</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>3400997.659974244</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>3396914.108274244</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>3405669.386074244</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>3388126.465574244</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>3370836.757974244</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>3370836.757974244</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>3357960.894074244</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>3567249.576774244</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>3541656.299374244</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>3547832.464174244</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>3546313.837074244</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>3646313.837074244</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>3674997.538774244</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>3629859.171474244</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>3623569.121474244</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>3626449.343988174</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>3624668.921488174</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>3631186.210088174</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>3518224.660088175</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>3618463.986788175</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>3614481.128788175</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>3640956.447388174</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>3637936.674788175</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>3649124.367388175</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>3649124.367388175</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>3649842.046474245</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>3668573.435774245</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>3605403.294774245</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>3605392.594774245</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>3600534.122674245</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>3600534.122674245</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>3612251.961374245</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>3603767.393574245</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>3595055.847474245</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>3572887.617574245</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>3611062.960474245</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>3609945.690674245</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>3609945.690674245</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>3645805.318574246</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>3648621.158545276</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>3648621.158545276</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>3646101.694345276</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>3726127.327045276</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>3726127.327045276</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>3726127.327045276</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>3744530.714745276</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>3716118.490910116</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>3680308.146110116</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>3677138.257910116</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>3678094.878810116</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>3675493.977810116</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>3675493.977810116</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>3693824.315810116</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>3580484.579477746</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>3607055.096912425</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>3607505.663272535</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>3607505.663272535</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>3610475.934226285</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>3586949.376726285</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>3603222.577826285</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>3612322.672326285</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>3358436.759626285</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>3373436.759626285</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>3373436.759626285</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>3322841.214956005</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>3326393.528056005</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>3338207.386356005</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>3395890.872756005</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>3362326.797956005</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>3471160.319156005</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>3457654.262256004</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>3479733.792456004</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>3409236.800656004</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>3406365.323905794</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>3433185.711205794</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>3434264.874105794</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>3434264.874105794</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>3454781.385405794</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>3957321.311256484</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>3957684.734256484</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>3957684.734256484</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>3947264.219356484</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>3969424.318256484</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>3892051.540456485</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>3892051.540456485</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>3891693.068756484</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>3821280.949456485</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>3782069.940456484</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>3780402.896279715</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>3781848.311192304</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>3790128.919609924</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>3782429.681714464</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>3805255.535014465</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>3782691.120014464</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>3736815.734714464</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>3757285.943514464</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>3752101.018214465</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>3752101.018214465</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>3752101.018214465</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>3752101.018214465</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>3752101.018214465</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>3752101.018214465</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>3732037.688513755</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>3714997.929313755</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>3794973.139213045</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>3794973.139213045</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>3794973.139213045</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>3874467.705205874</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>3853869.594105874</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>3812519.721155034</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>3754036.445355034</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>3754036.445355034</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>3791177.802955035</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>3779309.527455035</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>3699143.910855035</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>3649696.524355035</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>3650712.989955035</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>3650712.989955035</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>3650712.989955035</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>2886865.261956306</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>2899837.774756306</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>2757556.291073456</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>2745083.211473456</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>2661356.178373456</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>2771340.215573456</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>2767736.178373456</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>2767736.178373456</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>2520895.362473456</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>2615186.254573456</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>2558524.481132436</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>2676825.488632436</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>2628070.264832436</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>2466649.502932436</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>2338490.958232436</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>2338490.958232436</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>1128843.390732436</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>1290730.572732436</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>1290730.572732436</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>1371537.867732436</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>1532141.432432436</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>1549287.696704216</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>1611353.075726516</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>1871545.810780106</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>1862805.471102176</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>1862805.471102176</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>1921677.982224246</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>2089744.156643956</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>2353423.102288706</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>2353423.102288706</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>2384136.326188706</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>2384136.326188706</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>2238676.647488706</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>2238676.647488706</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>2267095.145488706</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>2394450.172388706</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>2293947.937688706</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>2390003.755588707</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>2437993.035100936</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>2379078.398500937</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>2348430.620628187</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>2348430.620628187</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>2350150.838828187</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>2350150.838828187</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>2340821.136928186</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>2306752.879076206</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>2303257.181376206</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>2304377.627676206</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>2298997.693376206</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>2262929.443476206</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>2263715.693176206</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>2339176.880976206</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>2286592.597076206</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>2245809.135369856</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>2182815.647569856</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>2222548.962011526</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>2133923.623711526</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>2153433.313711526</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>2127981.659711526</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>2186513.714211526</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>2435630.321344856</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>2708994.519152396</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>2613204.953852396</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>2571423.497952396</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>2713819.211052396</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>2885227.541305626</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>3170523.254863386</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>3170523.254863386</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>4127449.866353526</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>4844072.072453526</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>4744364.496207796</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>4576694.458507796</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>4657922.869007796</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>4558213.286007796</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>4769278.810107796</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>4583438.557507796</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>4473200.692207796</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>4709551.197607797</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>4573846.722207797</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>4654570.736707796</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>4621112.765207796</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>4534768.859407797</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>4803822.675007797</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>4885395.831349197</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>4885395.831349197</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>4860882.511049197</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>4933590.639849197</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>4933590.639849197</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>4789786.489349198</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>4748066.233649198</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>4681882.713094258</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>4728956.879594258</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>4720128.194794258</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>4880140.337694258</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>4894703.086923649</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>4894703.086923649</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>5030307.910123649</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>5054752.111633799</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>5001480.450933799</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>4918977.144033799</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>4904315.973799059</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>4918535.762064319</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>4918535.762064319</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>4940398.109722989</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>4986963.468922989</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>4958303.125922988</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>5018341.845522989</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>5058111.647122988</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>5058111.647122988</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>4774503.144664658</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>4790455.696064658</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>4790455.696064658</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>4790014.513866278</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>4844157.614252859</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>4858148.147852859</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>4812088.965052859</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>4841590.279652859</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>4767870.858037669</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>4705488.819889119</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>4601838.705354699</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>4520929.072854699</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>4520929.072854699</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>4598958.453754699</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>4565057.399854699</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>4636777.740554699</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>4476458.658054699</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>4467956.111854699</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>4495285.4637547</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>4452667.54438258</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>4501140.88968258</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>4457634.88394095</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>4549702.41704095</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>4549702.41704095</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>4549702.41704095</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>4606876.94124095</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>4593574.835076209</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>4593574.835076209</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>4580178.553176209</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>4602004.969976209</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>4602004.969976209</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>4634490.324392969</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>4596369.080592969</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>4618205.663392968</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>4538733.535792968</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>4538733.535792968</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>4538733.535792968</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>4535567.194792968</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>4535567.194792968</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>4497155.489230928</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>4376211.629151368</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>4067650.596075388</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>4062051.273175388</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>4062051.273175388</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>4070887.983752148</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>4061422.205659048</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>4050525.583859048</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>4059417.612059048</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>4063542.611059048</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>4171242.450930138</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>4240517.998030137</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>4243147.743930138</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>4237933.550530137</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>4237933.550530137</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>4238006.064230138</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>4238006.064230138</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>4230093.752130138</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>4214192.401430137</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>4214192.401430137</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>4109002.803230138</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>4109180.283930138</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>4124408.082330138</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>4124408.082330138</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>4118321.055230138</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>4118331.055230138</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>4118331.055230138</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>4163273.017430138</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>4183256.743937428</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>4262315.854637427</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>4265153.572237427</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>4283245.334437427</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>4282632.211937428</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>4282632.211937428</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>4296477.861637427</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>4416133.505537427</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>4421186.457937427</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>4422937.820499697</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>4339499.503409566</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>4325705.329409567</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>4325705.329409567</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>3974279.729188747</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>3962560.392588747</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>3941723.012788747</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>3994651.554788746</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>4013733.849688747</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>4013733.849688747</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>3990643.545388747</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>3997394.858388747</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>3940340.197388747</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>3952856.481888747</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>3947102.481888747</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>4010430.995788747</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>4032089.561287667</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>4032089.561287667</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>4032309.515187667</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>4028559.535589527</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>4028559.535589527</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>3972170.556789527</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>3972170.556789527</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>3972170.556789527</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>3994237.679389527</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>4011135.651789527</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>4011135.651789527</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>4011135.651789527</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>3978737.933071507</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>4036382.681624717</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>4034993.780724717</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>4090482.840924717</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>4090482.840924717</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>4061897.727724717</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>4056625.226924717</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>4089718.361524717</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>4184371.720924717</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>4183922.379824718</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>4165518.295524717</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>4166467.890924717</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>4274379.772935447</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>4340767.059413987</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>4349477.600313988</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>4368655.336413988</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>4368655.336413988</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>4368655.336413988</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>4368655.336413988</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>4570155.329076368</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>4570155.329076368</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>4557228.899017419</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>4805862.428219778</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>4746911.947919779</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>4949938.994592508</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>4845569.156494629</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>4479897.085834528</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>4479897.085834528</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>4377472.908893278</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>4324164.885093278</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>4324164.885093278</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>4324164.885093278</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>4258919.018312088</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>4272706.311401809</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>4272706.311401809</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>4291069.606394338</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>4291069.606394338</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>4304557.225194339</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>4316557.052653639</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>4316557.052653639</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>4304120.772053638</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>4222045.071653638</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>4224848.856853638</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>4236059.920753638</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>4201920.193653638</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>4201920.193653638</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>4212041.011253638</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>4286806.985883418</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>4271736.176283418</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>4292739.197140329</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>4543821.436530079</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>4543821.436530079</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>4500981.286230079</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>4490394.073630079</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>4510002.053830079</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>5111491.106486648</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>5511567.027430668</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>5317512.111830669</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>5576397.973214708</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>5620696.385785478</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>5904348.499699548</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>5666537.160799548</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>5845958.120739978</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>5665008.191534478</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>5537822.787734478</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>5432103.231134478</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>5502770.875412398</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>5501230.196857958</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>5401762.357657958</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>5439270.663092508</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>5331900.535192508</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>5208770.747692509</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>5094100.036292508</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>5297389.971892509</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>5297389.971892509</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>5196551.436092509</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>5249513.899216619</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>5234754.71185716</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>5133489.28495848</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>5190820.63090481</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>5118082.85610481</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>5118082.85610481</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>5143925.375391549</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>5115300.966953489</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>5115300.966953489</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>5115300.966953489</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>5142120.290547599</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>5133710.931200319</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>5129532.489100319</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>5187311.836365929</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>5177115.611888349</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>5177115.611888349</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>5235727.510288349</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>5277498.760988349</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>5238444.241888349</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>5217803.721988349</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>5239147.836188349</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>5205590.102288349</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>5129081.574288349</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>5119870.628288348</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>5119870.628288348</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>5119870.628288348</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>4874917.609411678</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>4877235.259511678</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>4872537.795320719</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>4878197.690820718</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>4878197.690820718</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>4914872.408620718</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>4908360.507320718</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>4931047.371063128</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>4906663.364963128</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>4942457.550963128</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>4953625.683363128</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>5369782.233029759</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>5359580.780929758</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>5359580.780929758</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>5488700.635329758</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>5488700.635329758</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>5386634.082729758</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>5446918.962129758</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>5399421.737429758</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>5399421.737429758</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>5365945.936529838</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>5365945.936529838</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>5365945.936529838</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>5253042.720229837</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>5210270.924229837</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>5235847.326529837</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>5249641.313029837</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>5247820.567629836</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>5302334.851587797</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>5302334.851587797</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>5299328.181887796</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>5303143.208287796</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>5313691.102287796</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>5313691.102287796</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>5313691.102287796</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>5184675.151650926</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>5177529.367050926</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>5067111.504550926</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>5067111.504550926</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>4824459.068650926</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>4717005.095150926</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>4715105.507150926</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>4859958.951150926</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>4960907.533206336</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>4960907.533206336</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>4960907.533206336</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>4960907.533206336</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>4804749.930506337</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>4579092.966563187</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>4479604.602563187</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>4487777.393631087</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>4471807.536631087</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>4471807.536631087</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>4471807.536631087</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>4522087.363231087</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>4513943.586631087</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>4513943.586631087</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>4513943.586631087</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>4438619.285131087</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>4417732.385331087</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>4395035.512789567</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>4395035.512789567</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>4395035.512789567</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>4357303.425789567</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29722,7 +29722,7 @@
         <v>4357323.425789567</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29755,7 +29755,7 @@
         <v>4349944.908389566</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>4351210.929689567</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>4401368.131889567</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>4493399.626043047</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>4552138.286421667</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>4601809.267021667</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -29953,7 +29953,7 @@
         <v>4601809.267021667</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>4574005.672721667</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>4673295.434721667</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>4673295.434721667</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>4764972.537590007</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>4807379.001753357</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>4815837.883558687</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>4794796.065558687</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>4870077.395458687</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>4870077.395458687</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>4835812.511358687</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>4835812.511358687</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>4877326.823058687</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>4879709.558658687</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>4861185.868258688</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>4861185.868258688</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>4899429.383458688</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>4889394.339758688</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>4898027.409258688</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>4924845.268283187</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>4923378.541583187</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>4944670.623628407</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>4939339.319228407</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>4939339.319228407</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>4939339.319228407</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>4949942.287328407</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>4937753.452728407</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>4951039.602939038</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>5018629.028128408</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>4994320.204717778</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>4996451.711717778</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>4996451.711717778</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>4989574.426617778</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>4989574.426617778</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>4989574.426617778</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>4755410.603417777</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>4902397.454077917</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>4900332.381577917</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>4900332.381577917</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>4963699.708377917</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>4948883.261977918</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>4948883.261977918</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>4949208.911077918</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>4949198.234777917</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>4959473.686577917</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>4959473.686577917</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>4818584.267977917</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>4867844.471026776</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>4895229.882526777</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>4887449.327826777</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>4835590.389226777</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>4839065.099078516</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31669,7 +31669,7 @@
         <v>4839065.099078516</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31702,7 +31702,7 @@
         <v>4871963.613098087</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -31735,7 +31735,7 @@
         <v>4877398.938273016</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>4860853.568759456</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31801,7 +31801,7 @@
         <v>4862209.191159456</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -31834,7 +31834,7 @@
         <v>4862209.191159456</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -31867,7 +31867,7 @@
         <v>4836113.813859456</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>4836123.813859456</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>4834797.812659456</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>4943795.362259456</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>4943076.737037436</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>4932089.600337436</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>4933982.847637436</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>4932307.786637437</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32131,7 +32131,7 @@
         <v>4953392.923837436</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32164,7 +32164,7 @@
         <v>4943924.646237437</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32197,7 +32197,7 @@
         <v>4943924.646237437</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32230,7 +32230,7 @@
         <v>4930235.683978577</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32263,7 +32263,7 @@
         <v>4930235.683978577</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32296,7 +32296,7 @@
         <v>4937196.860878577</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32329,7 +32329,7 @@
         <v>4937196.860878577</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32362,7 +32362,7 @@
         <v>4937196.860878577</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32395,7 +32395,7 @@
         <v>4937154.737219717</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32428,7 +32428,7 @@
         <v>4933841.917619717</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32461,7 +32461,7 @@
         <v>4933841.917619717</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32494,7 +32494,7 @@
         <v>4933841.917619717</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32527,7 +32527,7 @@
         <v>4931629.945819717</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32560,7 +32560,7 @@
         <v>4931629.945819717</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32593,7 +32593,7 @@
         <v>4936956.566519717</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>4929763.073691607</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32659,7 +32659,7 @@
         <v>4902550.254991607</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -32692,7 +32692,7 @@
         <v>4870864.900291607</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -32725,7 +32725,7 @@
         <v>4868312.185891607</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>4894885.064491607</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32791,7 +32791,7 @@
         <v>4861924.565991607</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>4875881.374791607</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32857,7 +32857,7 @@
         <v>4875238.752191607</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
         <v>4901167.493491607</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -32923,7 +32923,7 @@
         <v>4934269.072291607</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -32956,7 +32956,7 @@
         <v>4934255.839591607</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>5045293.662691607</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33022,7 +33022,7 @@
         <v>5050010.924391607</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33055,7 +33055,7 @@
         <v>5037573.531091607</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33088,7 +33088,7 @@
         <v>5037577.594891607</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33121,7 +33121,7 @@
         <v>5017728.601191606</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33154,7 +33154,7 @@
         <v>5017728.601191606</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33187,7 +33187,7 @@
         <v>5025116.395720276</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33220,7 +33220,7 @@
         <v>5025116.395720276</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33253,7 +33253,7 @@
         <v>5013516.078320276</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33286,7 +33286,7 @@
         <v>5019277.030120276</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33319,7 +33319,7 @@
         <v>5003630.012120276</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33352,7 +33352,7 @@
         <v>5003630.012120276</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -33385,7 +33385,7 @@
         <v>5054999.547420275</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33418,7 +33418,7 @@
         <v>4981053.904220276</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33451,7 +33451,7 @@
         <v>4988727.384720275</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33484,7 +33484,7 @@
         <v>4984335.616120275</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -33517,7 +33517,7 @@
         <v>4846063.872320275</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -33550,7 +33550,7 @@
         <v>4839348.118654865</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -33583,7 +33583,7 @@
         <v>4873695.199154865</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -33616,7 +33616,7 @@
         <v>4785286.204654865</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -33649,7 +33649,7 @@
         <v>4808228.688454865</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -33682,7 +33682,7 @@
         <v>4753044.511054864</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -33715,7 +33715,7 @@
         <v>4753044.511054864</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>4766946.739854864</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -33781,7 +33781,7 @@
         <v>4789713.112554864</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +33814,7 @@
         <v>4789713.112554864</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33847,7 +33847,7 @@
         <v>4789713.112554864</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -33880,7 +33880,7 @@
         <v>4769600.789854864</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -33913,7 +33913,7 @@
         <v>4769600.789854864</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -33946,7 +33946,7 @@
         <v>4733290.294380024</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -33979,7 +33979,7 @@
         <v>4733290.294380024</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34012,7 +34012,7 @@
         <v>4741432.260205184</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34045,7 +34045,7 @@
         <v>4781908.928505184</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34078,7 +34078,7 @@
         <v>4781908.928505184</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34111,7 +34111,7 @@
         <v>4891549.646985884</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34144,7 +34144,7 @@
         <v>4891715.646985884</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34177,7 +34177,7 @@
         <v>4884107.576685884</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -34210,7 +34210,7 @@
         <v>4884107.576685884</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34243,7 +34243,7 @@
         <v>4898385.504385884</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34276,7 +34276,7 @@
         <v>4887501.504385884</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34309,7 +34309,7 @@
         <v>4890915.284385884</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34342,7 +34342,7 @@
         <v>4890915.284385884</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34375,7 +34375,7 @@
         <v>4890915.284385884</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34408,7 +34408,7 @@
         <v>4880944.263685884</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34441,7 +34441,7 @@
         <v>4901377.136160704</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -34474,7 +34474,7 @@
         <v>4825886.231260704</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34507,7 +34507,7 @@
         <v>4960551.866258174</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -34540,7 +34540,7 @@
         <v>4904938.226058174</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -34573,7 +34573,7 @@
         <v>5011494.339758174</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -34606,7 +34606,7 @@
         <v>5016895.839958173</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -34639,7 +34639,7 @@
         <v>5010036.481258173</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -34672,7 +34672,7 @@
         <v>5010036.481258173</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -34705,7 +34705,7 @@
         <v>5010036.481258173</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -34738,7 +34738,7 @@
         <v>4968051.060838873</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -34771,7 +34771,7 @@
         <v>5016129.906938873</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -34804,7 +34804,7 @@
         <v>5016129.906938873</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -34837,7 +34837,7 @@
         <v>5009480.232238873</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -34870,7 +34870,7 @@
         <v>4968083.992038873</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -34903,7 +34903,7 @@
         <v>4947140.861538873</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -34936,7 +34936,7 @@
         <v>4912505.805538873</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -34969,7 +34969,7 @@
         <v>4898203.778209713</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -35002,7 +35002,7 @@
         <v>4861898.159109714</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -35035,7 +35035,7 @@
         <v>4810743.583809714</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -35068,7 +35068,7 @@
         <v>4831557.139092764</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -35101,7 +35101,7 @@
         <v>4831557.139092764</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -35134,7 +35134,7 @@
         <v>4831557.139092764</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -35167,7 +35167,7 @@
         <v>4863536.586192764</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -35200,7 +35200,7 @@
         <v>4782410.177592765</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -35233,7 +35233,7 @@
         <v>4782410.177592765</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -35266,7 +35266,7 @@
         <v>4782410.177592765</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -35299,7 +35299,7 @@
         <v>4782410.177592765</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -35332,7 +35332,7 @@
         <v>4607151.774292764</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -35365,7 +35365,7 @@
         <v>4607151.774292764</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -35398,7 +35398,7 @@
         <v>4607151.774292764</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -35431,7 +35431,7 @@
         <v>4311449.040792764</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -35464,7 +35464,7 @@
         <v>4311449.040792764</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -35497,7 +35497,7 @@
         <v>4359370.834992765</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -35530,7 +35530,7 @@
         <v>4359370.834992765</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -35563,7 +35563,7 @@
         <v>4359370.834992765</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -35596,7 +35596,7 @@
         <v>4359370.834992765</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -35629,7 +35629,7 @@
         <v>4360429.119892765</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -35662,7 +35662,7 @@
         <v>4409562.460392765</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -35695,7 +35695,7 @@
         <v>4404328.140192765</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -35728,7 +35728,7 @@
         <v>4235137.100792765</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -35761,7 +35761,7 @@
         <v>4312283.088792765</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -35794,7 +35794,7 @@
         <v>4321427.248992764</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -35827,7 +35827,7 @@
         <v>4307321.526692765</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -35860,7 +35860,7 @@
         <v>4307321.526692765</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -35893,7 +35893,7 @@
         <v>4428695.532592765</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -35926,7 +35926,7 @@
         <v>4446213.713792766</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -35959,7 +35959,7 @@
         <v>4450716.695792765</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -35992,7 +35992,7 @@
         <v>4402983.334192765</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -36025,7 +36025,7 @@
         <v>4402983.334192765</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -36058,7 +36058,7 @@
         <v>4402983.334192765</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -36091,7 +36091,7 @@
         <v>4315622.903014825</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -36124,7 +36124,7 @@
         <v>4197385.468114825</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -36157,7 +36157,7 @@
         <v>4197385.468114825</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -36190,7 +36190,7 @@
         <v>3516351.477914825</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -36223,7 +36223,7 @@
         <v>3720214.773228595</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -36256,7 +36256,7 @@
         <v>3720214.773228595</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -36289,7 +36289,7 @@
         <v>3652483.652728595</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -36322,7 +36322,7 @@
         <v>3867861.970214825</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -36355,7 +36355,7 @@
         <v>3894481.370114825</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -36388,7 +36388,7 @@
         <v>3952294.498238265</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -36421,7 +36421,7 @@
         <v>3918751.995061704</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -36454,7 +36454,7 @@
         <v>3917166.389561704</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -36487,7 +36487,7 @@
         <v>3926548.190761704</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -36520,7 +36520,7 @@
         <v>3927733.932761705</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -36553,7 +36553,7 @@
         <v>3909626.803961704</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -36586,7 +36586,7 @@
         <v>3909626.803961704</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -36619,7 +36619,7 @@
         <v>3911153.947861705</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -36652,7 +36652,7 @@
         <v>3817114.284561704</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -36685,7 +36685,7 @@
         <v>3817114.284561704</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -36718,7 +36718,7 @@
         <v>3817114.284561704</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -36751,7 +36751,7 @@
         <v>3898848.144561704</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -36784,7 +36784,7 @@
         <v>3830998.830661704</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -36817,7 +36817,7 @@
         <v>3805321.735161704</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -36850,7 +36850,7 @@
         <v>3935492.954576404</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -36883,7 +36883,7 @@
         <v>3499688.897776404</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -36916,7 +36916,7 @@
         <v>3604639.842776404</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -36949,7 +36949,7 @@
         <v>3576819.148876404</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -36982,7 +36982,7 @@
         <v>3573804.668576404</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -37015,7 +37015,7 @@
         <v>3692634.644314224</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -37048,7 +37048,7 @@
         <v>3679486.818114224</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -37081,7 +37081,7 @@
         <v>3650677.261414224</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -37114,7 +37114,7 @@
         <v>3688831.280014224</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -37147,7 +37147,7 @@
         <v>3742762.803614224</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -37180,7 +37180,7 @@
         <v>3735985.404314224</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -37213,7 +37213,7 @@
         <v>3565451.962014224</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -37246,7 +37246,7 @@
         <v>2736403.510724534</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -37279,7 +37279,7 @@
         <v>1425882.119542864</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -37312,7 +37312,7 @@
         <v>-349929.1761890156</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -37345,7 +37345,7 @@
         <v>-349929.1761890156</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -37378,7 +37378,7 @@
         <v>-1358792.611989016</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -39523,17 +39523,11 @@
         <v>-2267666.662588125</v>
       </c>
       <c r="H1186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1186" t="n">
-        <v>263.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1186" t="inlineStr"/>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -39566,11 +39560,7 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1187" t="inlineStr"/>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -39599,17 +39589,11 @@
         <v>-2294545.739449555</v>
       </c>
       <c r="H1188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1188" t="n">
-        <v>263.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1188" t="inlineStr"/>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -39642,11 +39626,7 @@
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1189" t="inlineStr"/>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -39679,11 +39659,7 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1190" t="inlineStr"/>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -39716,11 +39692,7 @@
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1191" t="inlineStr"/>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -39753,11 +39725,7 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1192" t="inlineStr"/>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -39790,11 +39758,7 @@
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1193" t="inlineStr"/>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -39827,11 +39791,7 @@
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1194" t="inlineStr"/>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -39864,11 +39824,7 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1195" t="inlineStr"/>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -39901,11 +39857,7 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1196" t="inlineStr"/>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -39938,11 +39890,7 @@
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1197" t="inlineStr"/>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -39975,11 +39923,7 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1198" t="inlineStr"/>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -40012,11 +39956,7 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1199" t="inlineStr"/>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40049,11 +39989,7 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1200" t="inlineStr"/>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40086,11 +40022,7 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1201" t="inlineStr"/>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40123,11 +40055,7 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1202" t="inlineStr"/>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40160,11 +40088,7 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1203" t="inlineStr"/>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40197,11 +40121,7 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1204" t="inlineStr"/>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40230,17 +40150,11 @@
         <v>-4775690.714735466</v>
       </c>
       <c r="H1205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1205" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1205" t="inlineStr"/>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -40269,17 +40183,11 @@
         <v>-4775690.714735466</v>
       </c>
       <c r="H1206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1206" t="n">
-        <v>261.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1206" t="inlineStr"/>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40308,17 +40216,11 @@
         <v>-4652363.800376966</v>
       </c>
       <c r="H1207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1207" t="n">
-        <v>261.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1207" t="inlineStr"/>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40347,17 +40249,11 @@
         <v>-4597331.306139746</v>
       </c>
       <c r="H1208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1208" t="n">
-        <v>261.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1208" t="inlineStr"/>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -40386,17 +40282,11 @@
         <v>-4716854.706568966</v>
       </c>
       <c r="H1209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1209" t="n">
-        <v>262.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1209" t="inlineStr"/>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -40425,17 +40315,11 @@
         <v>-4716854.706568966</v>
       </c>
       <c r="H1210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1210" t="n">
-        <v>261.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1210" t="inlineStr"/>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -40464,17 +40348,11 @@
         <v>-4780393.692168966</v>
       </c>
       <c r="H1211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1211" t="n">
-        <v>261.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1211" t="inlineStr"/>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -40503,17 +40381,11 @@
         <v>-4780393.692168966</v>
       </c>
       <c r="H1212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1212" t="n">
-        <v>261.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1212" t="inlineStr"/>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -40542,17 +40414,11 @@
         <v>-4436711.023848356</v>
       </c>
       <c r="H1213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1213" t="n">
-        <v>261.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1213" t="inlineStr"/>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -40581,17 +40447,11 @@
         <v>-4316439.578048356</v>
       </c>
       <c r="H1214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1214" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1214" t="inlineStr"/>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -40624,11 +40484,7 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1215" t="inlineStr"/>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -40661,11 +40517,7 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1216" t="inlineStr"/>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -40698,11 +40550,7 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1217" t="inlineStr"/>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -40735,11 +40583,7 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1218" t="inlineStr"/>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -40772,11 +40616,7 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1219" t="inlineStr"/>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -40809,11 +40649,7 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1220" t="inlineStr"/>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -40846,11 +40682,7 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1221" t="inlineStr"/>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -40883,11 +40715,7 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1222" t="inlineStr"/>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -40920,11 +40748,7 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1223" t="inlineStr"/>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -40957,11 +40781,7 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1224" t="inlineStr"/>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -40994,11 +40814,7 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1225" t="inlineStr"/>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41031,11 +40847,7 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1226" t="inlineStr"/>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41068,11 +40880,7 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1227" t="inlineStr"/>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41105,11 +40913,7 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1228" t="inlineStr"/>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -41142,11 +40946,7 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1229" t="inlineStr"/>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -41179,11 +40979,7 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1230" t="inlineStr"/>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41216,11 +41012,7 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1231" t="inlineStr"/>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41253,11 +41045,7 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1232" t="inlineStr"/>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41290,11 +41078,7 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1233" t="inlineStr"/>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -41327,11 +41111,7 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1234" t="inlineStr"/>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41364,11 +41144,7 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41401,11 +41177,7 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41438,11 +41210,7 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41475,11 +41243,7 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41512,11 +41276,7 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41549,11 +41309,7 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1240" t="inlineStr"/>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41586,11 +41342,7 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1241" t="inlineStr"/>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -41623,11 +41375,7 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1242" t="inlineStr"/>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -41660,11 +41408,7 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1243" t="inlineStr"/>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -41697,11 +41441,7 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1244" t="inlineStr"/>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -41734,11 +41474,7 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1245" t="inlineStr"/>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -41771,11 +41507,7 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1246" t="inlineStr"/>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -41808,11 +41540,7 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -41845,11 +41573,7 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -41882,11 +41606,7 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1249" t="inlineStr"/>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -41919,11 +41639,7 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1250" t="inlineStr"/>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -41956,11 +41672,7 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1251" t="inlineStr"/>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -41993,11 +41705,7 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1252" t="inlineStr"/>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -42030,11 +41738,7 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1253" t="inlineStr"/>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -42067,11 +41771,7 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1254" t="inlineStr"/>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -42104,11 +41804,7 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1255" t="inlineStr"/>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -42145,7 +41841,7 @@
       <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1256" t="n">
@@ -42215,11 +41911,9 @@
         <v>-3742045.148304923</v>
       </c>
       <c r="H1258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1258" t="n">
-        <v>263.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
@@ -42293,9 +41987,11 @@
         <v>-3823492.948160544</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>262.4</v>
+      </c>
       <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
@@ -42330,9 +42026,11 @@
         <v>-3794755.590208644</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>262.4</v>
+      </c>
       <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
@@ -42913,9 +42611,11 @@
         <v>-3908551.849846484</v>
       </c>
       <c r="H1276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>263.3</v>
+      </c>
       <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
@@ -42950,9 +42650,11 @@
         <v>-3887157.838646484</v>
       </c>
       <c r="H1277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>263.3</v>
+      </c>
       <c r="J1277" t="inlineStr"/>
       <c r="K1277" t="inlineStr">
         <is>
@@ -42987,9 +42689,11 @@
         <v>-3775234.786946484</v>
       </c>
       <c r="H1278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>263.6</v>
+      </c>
       <c r="J1278" t="inlineStr"/>
       <c r="K1278" t="inlineStr">
         <is>
@@ -43024,9 +42728,11 @@
         <v>-3567092.282520304</v>
       </c>
       <c r="H1279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>263.7</v>
+      </c>
       <c r="J1279" t="inlineStr"/>
       <c r="K1279" t="inlineStr">
         <is>
@@ -43061,9 +42767,11 @@
         <v>-3535555.958946484</v>
       </c>
       <c r="H1280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>263.9</v>
+      </c>
       <c r="J1280" t="inlineStr"/>
       <c r="K1280" t="inlineStr">
         <is>
@@ -43098,9 +42806,11 @@
         <v>-3464185.197146484</v>
       </c>
       <c r="H1281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>264</v>
+      </c>
       <c r="J1281" t="inlineStr"/>
       <c r="K1281" t="inlineStr">
         <is>
@@ -43135,9 +42845,11 @@
         <v>-3204529.414937054</v>
       </c>
       <c r="H1282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>264.2</v>
+      </c>
       <c r="J1282" t="inlineStr"/>
       <c r="K1282" t="inlineStr">
         <is>
@@ -43172,9 +42884,11 @@
         <v>-3377005.856137054</v>
       </c>
       <c r="H1283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>264.9</v>
+      </c>
       <c r="J1283" t="inlineStr"/>
       <c r="K1283" t="inlineStr">
         <is>
@@ -43246,9 +42960,11 @@
         <v>-3432804.020737054</v>
       </c>
       <c r="H1285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>264.8</v>
+      </c>
       <c r="J1285" t="inlineStr"/>
       <c r="K1285" t="inlineStr">
         <is>
@@ -43320,9 +43036,11 @@
         <v>-3440929.088017384</v>
       </c>
       <c r="H1287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>263.8</v>
+      </c>
       <c r="J1287" t="inlineStr"/>
       <c r="K1287" t="inlineStr">
         <is>
@@ -43357,9 +43075,11 @@
         <v>-3440929.088017384</v>
       </c>
       <c r="H1288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>264</v>
+      </c>
       <c r="J1288" t="inlineStr"/>
       <c r="K1288" t="inlineStr">
         <is>
@@ -43394,9 +43114,11 @@
         <v>-3275549.289888184</v>
       </c>
       <c r="H1289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>264</v>
+      </c>
       <c r="J1289" t="inlineStr"/>
       <c r="K1289" t="inlineStr">
         <is>
@@ -43468,9 +43190,11 @@
         <v>-3155214.430462664</v>
       </c>
       <c r="H1291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>264.4</v>
+      </c>
       <c r="J1291" t="inlineStr"/>
       <c r="K1291" t="inlineStr">
         <is>
@@ -43801,9 +43525,11 @@
         <v>-3228094.571698964</v>
       </c>
       <c r="H1300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>263.9</v>
+      </c>
       <c r="J1300" t="inlineStr"/>
       <c r="K1300" t="inlineStr">
         <is>
@@ -44321,11 +44047,9 @@
         <v>-3243081.990520383</v>
       </c>
       <c r="H1314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1314" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
       <c r="K1314" t="inlineStr">
         <is>
@@ -44545,11 +44269,9 @@
         <v>-3060240.024048273</v>
       </c>
       <c r="H1320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1320" t="n">
-        <v>264.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
       <c r="K1320" t="inlineStr">
         <is>
@@ -44584,11 +44306,9 @@
         <v>-3158622.604348273</v>
       </c>
       <c r="H1321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1321" t="n">
-        <v>264.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
       <c r="K1321" t="inlineStr">
         <is>
@@ -44740,9 +44460,11 @@
         <v>-3162966.268397953</v>
       </c>
       <c r="H1325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>264.3</v>
+      </c>
       <c r="J1325" t="inlineStr"/>
       <c r="K1325" t="inlineStr">
         <is>
@@ -44755,6 +44477,6 @@
       <c r="M1325" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest XRP.xlsx
+++ b/BackTest/2020-01-20 BackTest XRP.xlsx
@@ -715,7 +715,7 @@
         <v>5845293.730283317</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>5194332.272194957</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>5261618.864166398</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>5391079.127266398</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>5532162.493724748</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>5532162.493724748</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>5379480.436546068</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>5446825.179346068</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>5320537.659846067</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>5244795.476446067</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>5277648.137546067</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>5188854.388497427</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>5109521.573597427</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>5207958.664697427</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>5180898.770697427</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>4909775.161826367</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>4620453.593285186</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>4620453.593285186</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>4428343.115885186</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>4366182.010885186</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>3878567.637885185</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>3989527.216775225</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2699722.514270115</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>3320463.314115565</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>3035070.179470215</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>3150378.363870215</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>3150378.363870215</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>3262314.124489795</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>3130237.172038585</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2995789.022438585</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>3453266.195133935</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>3606885.331333935</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>3518959.435757125</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>3388877.609357125</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>3073535.652157125</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>2880100.713923795</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>3140297.951223795</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>3217055.980624225</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>3248630.680219715</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>3113074.349819716</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>3285745.831319716</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>3228028.463419716</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>2767230.415119716</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>3080142.186119716</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3178319.384719715</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3178319.384719715</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3178319.384719715</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3252245.849988265</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>3246430.499088265</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>3269646.053188265</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>3202812.045688265</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>3202812.045688265</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>3313860.335188265</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>3313860.335188265</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>3308374.747969666</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>3299308.513069666</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>3299308.513069666</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3281653.835194086</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>3387109.260599906</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>3436537.714999906</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>3457889.216699906</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>3475708.344999906</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>3419885.038699906</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>3426198.206699906</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>3416971.718563776</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>3423715.656763776</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>3345772.528963776</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>3331016.862863776</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>3313426.029863776</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>3331749.220163776</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>3382653.228063776</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>3338902.811363776</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>3356608.349763776</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>3346758.589596366</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>3325861.778396366</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>3290597.170896366</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>3309856.711296366</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>3309856.711296366</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>3353509.856396366</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>3353509.856396366</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>3353174.513496366</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>3356264.513496366</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>3359078.182896366</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>3357084.090896366</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>3368706.252896366</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>3372516.553396366</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>3385982.273996366</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>3385982.273996366</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>3406933.612696366</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>3388509.370196366</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>3388509.370196366</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3386509.370196366</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>3399787.638396366</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>3392810.173396366</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>3423341.697396366</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>3432252.065296366</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>3408133.621296366</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>3355805.681996366</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>3326393.059496365</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>3274685.872296365</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>3301145.153696366</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>3301145.153696366</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>3301145.153696366</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>3304465.940796365</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>3304465.940796365</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>3304465.940796365</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>3304814.118996365</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>3182403.040996365</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>3172130.394096365</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>3206823.888902995</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>3218270.149802995</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>3220050.572302995</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>3220394.772302995</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>3220394.772302995</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>3210405.476102995</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>3198695.814602995</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>3198695.814602995</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>3198677.751002995</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>3198677.751002995</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>3096644.186702995</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>3225787.087902995</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>3280407.983402995</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>3280758.647402995</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>3280758.647402995</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>3273834.102702995</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>3283492.688502995</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>3369981.054802995</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>3364490.782802995</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>3369206.687174245</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>3362657.066074245</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>3363010.066074245</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>3356681.980074245</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>3371748.517474245</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>3371748.517474245</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>3362788.782774245</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>3360937.744274245</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>3342176.253074245</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>3354393.423674245</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>3354353.004674245</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>3376766.296974245</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>3376766.296974245</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>3382349.932074245</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>3382349.932074245</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>3356073.087174245</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>3358496.698974245</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>3358496.698974245</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>3358496.698974245</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>3353053.779074245</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>3369071.594374245</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>3369071.594374245</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>3363037.127574245</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>3400997.659974244</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>3400997.659974244</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>3396914.108274244</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>3405669.386074244</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>3388126.465574244</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>3370836.757974244</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>3370836.757974244</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>3357960.894074244</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>3567249.576774244</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>3541656.299374244</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>3547832.464174244</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>3546313.837074244</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>3646313.837074244</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>3674997.538774244</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>3629859.171474244</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>3623569.121474244</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>3626449.343988174</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>3624668.921488174</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>3631186.210088174</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>3518224.660088175</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>3618463.986788175</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>3614481.128788175</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>3640956.447388174</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>3637936.674788175</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>3649124.367388175</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>3649124.367388175</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>3649842.046474245</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>3668573.435774245</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>3605403.294774245</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>3605392.594774245</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>3600534.122674245</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>3600534.122674245</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>3612251.961374245</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>3603767.393574245</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>3595055.847474245</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>3572887.617574245</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>3611062.960474245</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>3609945.690674245</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>3609945.690674245</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>3645805.318574246</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>3648621.158545276</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>3648621.158545276</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>3646101.694345276</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>3726127.327045276</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>3726127.327045276</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>3726127.327045276</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>3744530.714745276</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>3716118.490910116</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>3680308.146110116</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>3677138.257910116</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>3678094.878810116</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>3675493.977810116</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>3675493.977810116</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>3693824.315810116</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>3580484.579477746</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>3607055.096912425</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>3607505.663272535</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>3607505.663272535</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>3610475.934226285</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>3586949.376726285</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>3603222.577826285</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>3612322.672326285</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>3358436.759626285</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>3373436.759626285</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>3373436.759626285</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>3322841.214956005</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>3326393.528056005</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>3338207.386356005</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>3395890.872756005</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>3362326.797956005</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>3471160.319156005</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>3457654.262256004</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>3479733.792456004</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>3409236.800656004</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>3406365.323905794</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>3433185.711205794</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>3434264.874105794</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>3434264.874105794</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>3454781.385405794</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>2886865.261956306</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>2899837.774756306</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>2757556.291073456</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>2745083.211473456</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>2661356.178373456</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>2771340.215573456</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>2767736.178373456</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>2767736.178373456</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>2520895.362473456</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>2615186.254573456</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>2558524.481132436</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>2676825.488632436</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>2628070.264832436</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>2466649.502932436</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>2338490.958232436</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>2338490.958232436</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>1128843.390732436</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>1290730.572732436</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>1290730.572732436</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>1371537.867732436</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>1532141.432432436</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>1549287.696704216</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>1611353.075726516</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>1871545.810780106</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>1862805.471102176</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>1862805.471102176</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>1921677.982224246</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>2089744.156643956</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>2353423.102288706</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>2353423.102288706</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>2384136.326188706</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>2384136.326188706</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>2238676.647488706</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>2238676.647488706</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>2267095.145488706</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>2394450.172388706</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>2293947.937688706</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>2390003.755588707</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>2437993.035100936</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>2379078.398500937</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>2348430.620628187</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>2348430.620628187</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>2350150.838828187</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>2350150.838828187</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>2340821.136928186</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>2306752.879076206</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>2303257.181376206</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>2304377.627676206</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>2298997.693376206</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>2262929.443476206</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>2263715.693176206</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>2339176.880976206</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>2286592.597076206</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>2245809.135369856</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>2182815.647569856</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>2222548.962011526</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>2133923.623711526</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>2153433.313711526</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>2127981.659711526</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>2186513.714211526</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>2435630.321344856</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>2708994.519152396</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>2613204.953852396</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>2571423.497952396</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>2713819.211052396</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>4738946.521153525</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>4844072.072453526</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>4744364.496207796</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>4576694.458507796</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>4657922.869007796</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>4558213.286007796</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>4769278.810107796</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>4583438.557507796</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>4473200.692207796</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>4709551.197607797</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>4573846.722207797</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>4654570.736707796</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>4621112.765207796</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>4534768.859407797</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>4803822.675007797</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>4885395.831349197</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>4885395.831349197</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>4860882.511049197</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>4789786.489349198</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>4748066.233649198</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>4728956.879594258</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>4720128.194794258</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>4880140.337694258</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>4894703.086923649</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>5030307.910123649</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>4958303.125922988</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>5058111.647122988</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>4790014.513866278</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>4845569.156494629</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>4479897.085834528</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>4479897.085834528</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>4324164.885093278</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>4324164.885093278</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>4324164.885093278</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>4291069.606394338</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>4316557.052653639</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>4304120.772053638</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>4286806.985883418</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>4271736.176283418</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>4292739.197140329</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>4543821.436530079</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>4500981.286230079</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>4490394.073630079</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>5111491.106486648</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>5511567.027430668</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>5317512.111830669</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>5576397.973214708</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>5620696.385785478</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>5904348.499699548</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>5666537.160799548</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>5845958.120739978</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>5665008.191534478</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>5537822.787734478</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>5432103.231134478</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>5502770.875412398</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>5501230.196857958</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>5401762.357657958</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>5439270.663092508</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>5331900.535192508</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>5208770.747692509</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>5094100.036292508</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>5297389.971892509</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>5297389.971892509</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>5196551.436092509</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>5249513.899216619</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>5234754.71185716</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>5133489.28495848</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>5190820.63090481</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>5118082.85610481</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>5118082.85610481</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>5143925.375391549</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>5115300.966953489</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>5115300.966953489</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>5115300.966953489</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>5142120.290547599</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>5133710.931200319</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>5129532.489100319</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>5146847.402400319</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>5146847.402400319</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>5010009.909700319</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>5010009.909700319</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>4944753.745300319</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>5028987.663300319</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>5187311.836365929</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>5187311.836365929</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>5177115.611888349</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>5177115.611888349</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>5235727.510288349</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>5277498.760988349</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>5238444.241888349</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>5217803.721988349</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>5239147.836188349</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>5205590.102288349</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>5129081.574288349</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>5119870.628288348</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>5119870.628288348</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>5119870.628288348</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>4874917.609411678</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>4953625.683363128</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>5369782.233029759</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>5359580.780929758</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>5488700.635329758</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>5488700.635329758</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>5386634.082729758</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>5446918.962129758</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>5399421.737429758</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>5399421.737429758</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>5365945.936529838</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>5365945.936529838</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>5365945.936529838</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>5253042.720229837</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>5210270.924229837</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>5249641.313029837</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>5247820.567629836</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>5302334.851587797</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>5302334.851587797</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>5299328.181887796</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>5303143.208287796</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>5313691.102287796</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>5313691.102287796</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>5313691.102287796</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>5184675.151650926</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>5177529.367050926</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>5067111.504550926</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>5067111.504550926</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>4835812.511358687</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>4835812.511358687</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>4877326.823058687</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>4879709.558658687</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>4861185.868258688</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>4861185.868258688</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>4899429.383458688</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>4889394.339758688</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>4898027.409258688</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>4924845.268283187</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>4923378.541583187</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>4944670.623628407</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>4939339.319228407</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>4939339.319228407</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>4939339.319228407</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>4949942.287328407</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>4937753.452728407</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>4951039.602939038</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>5018629.028128408</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>4994320.204717778</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>4996451.711717778</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>4996451.711717778</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>4989574.426617778</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>4989574.426617778</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>4989574.426617778</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>4755410.603417777</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>4902397.454077917</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>4900332.381577917</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>4900332.381577917</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>4963699.708377917</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>4948883.261977918</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>4948883.261977918</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>4949208.911077918</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>4949198.234777917</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>4959473.686577917</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>4959473.686577917</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>4818584.267977917</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>4867844.471026776</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>4887449.327826777</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>4835590.389226777</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>4839065.099078516</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31669,7 +31669,7 @@
         <v>4839065.099078516</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>4860853.568759456</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>4932089.600337436</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -41536,11 +41536,17 @@
         <v>-4393465.006341023</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>263.8</v>
+      </c>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -41569,11 +41575,17 @@
         <v>-3998551.989798503</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>263.9</v>
+      </c>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -41602,11 +41614,17 @@
         <v>-3816199.877072234</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>264</v>
+      </c>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -41635,11 +41653,17 @@
         <v>-3844741.541072234</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>264.1</v>
+      </c>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -41668,11 +41692,17 @@
         <v>-3984627.687472234</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>263.7</v>
+      </c>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -41705,7 +41735,11 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -41738,7 +41772,11 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -41767,11 +41805,17 @@
         <v>-3990516.884095153</v>
       </c>
       <c r="H1254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>262.9</v>
+      </c>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -41800,11 +41844,17 @@
         <v>-4002915.911819093</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>263</v>
+      </c>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -41841,7 +41891,7 @@
       <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1256" t="n">
@@ -41911,9 +41961,11 @@
         <v>-3742045.148304923</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>263.7</v>
+      </c>
       <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
@@ -42767,11 +42819,9 @@
         <v>-3535555.958946484</v>
       </c>
       <c r="H1280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1280" t="n">
-        <v>263.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
       <c r="K1280" t="inlineStr">
         <is>
@@ -42806,11 +42856,9 @@
         <v>-3464185.197146484</v>
       </c>
       <c r="H1281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1281" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
       <c r="K1281" t="inlineStr">
         <is>
@@ -42884,11 +42932,9 @@
         <v>-3377005.856137054</v>
       </c>
       <c r="H1283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1283" t="n">
-        <v>264.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
       <c r="K1283" t="inlineStr">
         <is>
@@ -42960,11 +43006,9 @@
         <v>-3432804.020737054</v>
       </c>
       <c r="H1285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1285" t="n">
-        <v>264.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
       <c r="K1285" t="inlineStr">
         <is>
@@ -43036,11 +43080,9 @@
         <v>-3440929.088017384</v>
       </c>
       <c r="H1287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1287" t="n">
-        <v>263.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
       <c r="K1287" t="inlineStr">
         <is>
@@ -43075,11 +43117,9 @@
         <v>-3440929.088017384</v>
       </c>
       <c r="H1288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1288" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
       <c r="K1288" t="inlineStr">
         <is>
@@ -43525,11 +43565,9 @@
         <v>-3228094.571698964</v>
       </c>
       <c r="H1300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1300" t="n">
-        <v>263.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
       <c r="K1300" t="inlineStr">
         <is>
@@ -43675,9 +43713,11 @@
         <v>-3199274.623098964</v>
       </c>
       <c r="H1304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>264.3</v>
+      </c>
       <c r="J1304" t="inlineStr"/>
       <c r="K1304" t="inlineStr">
         <is>
@@ -43712,9 +43752,11 @@
         <v>-3199274.623098964</v>
       </c>
       <c r="H1305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>264.5</v>
+      </c>
       <c r="J1305" t="inlineStr"/>
       <c r="K1305" t="inlineStr">
         <is>
@@ -43749,9 +43791,11 @@
         <v>-3234713.345198964</v>
       </c>
       <c r="H1306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>264.5</v>
+      </c>
       <c r="J1306" t="inlineStr"/>
       <c r="K1306" t="inlineStr">
         <is>
@@ -43786,9 +43830,11 @@
         <v>-3234713.345198964</v>
       </c>
       <c r="H1307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>264.1</v>
+      </c>
       <c r="J1307" t="inlineStr"/>
       <c r="K1307" t="inlineStr">
         <is>
@@ -43823,9 +43869,11 @@
         <v>-3187008.768273794</v>
       </c>
       <c r="H1308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>264.1</v>
+      </c>
       <c r="J1308" t="inlineStr"/>
       <c r="K1308" t="inlineStr">
         <is>
@@ -43860,9 +43908,11 @@
         <v>-3187008.768273794</v>
       </c>
       <c r="H1309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>264.5</v>
+      </c>
       <c r="J1309" t="inlineStr"/>
       <c r="K1309" t="inlineStr">
         <is>
@@ -43934,9 +43984,11 @@
         <v>-3212184.558573794</v>
       </c>
       <c r="H1311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>264.5</v>
+      </c>
       <c r="J1311" t="inlineStr"/>
       <c r="K1311" t="inlineStr">
         <is>
@@ -43971,9 +44023,11 @@
         <v>-3277782.716273793</v>
       </c>
       <c r="H1312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>264.2</v>
+      </c>
       <c r="J1312" t="inlineStr"/>
       <c r="K1312" t="inlineStr">
         <is>
@@ -44047,9 +44101,11 @@
         <v>-3243081.990520383</v>
       </c>
       <c r="H1314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>264.5</v>
+      </c>
       <c r="J1314" t="inlineStr"/>
       <c r="K1314" t="inlineStr">
         <is>
@@ -44084,9 +44140,11 @@
         <v>-3112523.658365283</v>
       </c>
       <c r="H1315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>264.4</v>
+      </c>
       <c r="J1315" t="inlineStr"/>
       <c r="K1315" t="inlineStr">
         <is>
@@ -44121,9 +44179,11 @@
         <v>-3116152.554540133</v>
       </c>
       <c r="H1316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>264.6</v>
+      </c>
       <c r="J1316" t="inlineStr"/>
       <c r="K1316" t="inlineStr">
         <is>
@@ -44158,9 +44218,11 @@
         <v>-3141156.579640133</v>
       </c>
       <c r="H1317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>264.5</v>
+      </c>
       <c r="J1317" t="inlineStr"/>
       <c r="K1317" t="inlineStr">
         <is>
@@ -44195,9 +44257,11 @@
         <v>-3125444.232140133</v>
       </c>
       <c r="H1318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>264.1</v>
+      </c>
       <c r="J1318" t="inlineStr"/>
       <c r="K1318" t="inlineStr">
         <is>
@@ -44232,9 +44296,11 @@
         <v>-3168485.126940133</v>
       </c>
       <c r="H1319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>264.3</v>
+      </c>
       <c r="J1319" t="inlineStr"/>
       <c r="K1319" t="inlineStr">
         <is>
@@ -44269,9 +44335,11 @@
         <v>-3060240.024048273</v>
       </c>
       <c r="H1320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>264.2</v>
+      </c>
       <c r="J1320" t="inlineStr"/>
       <c r="K1320" t="inlineStr">
         <is>
